--- a/energies.xlsx
+++ b/energies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alistairsterling/Library/CloudStorage/OneDrive-Nexus365/Propellanes/Data/To_upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alistairsterling/Dropbox Google/Dropbox/Alistair-delocalisation/JACS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="704" documentId="14_{D9DD0ECC-BA56-7E48-83F2-A95396A1CC0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{810BD470-6E8A-EE4D-8508-3891D55ACA62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4B38D3-DAE8-F54A-AFB1-0D43410DCCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="6" xr2:uid="{66DEA501-7ED3-D942-A16A-9C3E7027997A}"/>
+    <workbookView xWindow="200" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="5" xr2:uid="{66DEA501-7ED3-D942-A16A-9C3E7027997A}"/>
   </bookViews>
   <sheets>
     <sheet name="Me• addition" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="477">
   <si>
     <t>B2PLYP-D3BJ/def2-TZVP</t>
   </si>
@@ -666,9 +676,6 @@
     <t>CP</t>
   </si>
   <si>
-    <t>ethylphopshine</t>
-  </si>
-  <si>
     <t>PCC</t>
   </si>
   <si>
@@ -1446,7 +1453,94 @@
     <t>Label</t>
   </si>
   <si>
-    <t>1–ELF</t>
+    <t>D/D_0</t>
+  </si>
+  <si>
+    <t>1-ELF</t>
+  </si>
+  <si>
+    <r>
+      <t>TS 〈S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>〉 (opt)</t>
+    </r>
+  </si>
+  <si>
+    <t>T1 (sp)</t>
+  </si>
+  <si>
+    <r>
+      <t>TS 〈S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>〉 (sp, HF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TS 〈S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>〉 (sp, CCSD lin)</t>
+    </r>
+  </si>
+  <si>
+    <t>ethylphosphine</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1553,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1489,6 +1583,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1560,7 +1661,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2038,7 +2139,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2516,7 +2617,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2904,7 +3005,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2936,7 +3037,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2-Nocc vs 1-ELF</a:t>
+              <a:t>2–Nocc vs D/D_0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3127,40 +3228,40 @@
             <c:numRef>
               <c:f>'Delocalisation values'!$D$2:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.44768639999999998</c:v>
+                  <c:v>0.90031416279085852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.281667</c:v>
+                  <c:v>0.62618848192949617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25419530000000001</c:v>
+                  <c:v>0.5838095570732994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20848530000000001</c:v>
+                  <c:v>0.5132255005556563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1159114</c:v>
+                  <c:v>0.36208887405563145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9385000000000001E-2</c:v>
+                  <c:v>0.33219327254585179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4752100000000003E-2</c:v>
+                  <c:v>0.2164455512660981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.5879699999999998E-2</c:v>
+                  <c:v>0.32564935551810564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5221025999999998E-2</c:v>
+                  <c:v>0.21763001028561987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1357499999999998E-2</c:v>
+                  <c:v>0.20770588406516152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6638700000000003E-2</c:v>
+                  <c:v>0.19501832857056711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3238,7 +3339,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3334,7 +3435,437 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2–Nocc vs 1–ELF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0190726159230097E-2"/>
+                  <c:y val="-3.1073563721201517E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Delocalisation values'!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.16741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13203999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1109500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1490000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.519000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9139999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3930000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2740000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6489999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3579999999999952E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1299999999999892E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9379999999999971E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4259999999999957E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8989999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6750000000000052E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5130000000000097E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2159999999999958E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6709999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Delocalisation values'!$E$2:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.44768640000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.281667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25419530000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20848529999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11591139999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9385000000000057E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4752099999999961E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5879699999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5221025999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1357499999999936E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6638699999999913E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B589-6449-B478-F27D669E8992}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1908739951"/>
+        <c:axId val="1084587440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1908739951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084587440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1084587440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908739951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3833,10 +4364,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4524,6 +5055,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6628,6 +7199,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7130,7 +8217,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7686,16 +8773,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7710,7 +8797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="1625600"/>
+          <a:off x="11760200" y="1727200"/>
           <a:ext cx="3924300" cy="1397000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8245,6 +9332,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF77126-DF75-EF45-AB93-B1E20EFE9436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8812,18 +9937,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9806142-4C36-ED4C-A883-ABE649581BF2}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8838,7 +9965,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8869,8 +9996,20 @@
       <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -8904,7 +10043,7 @@
         <v>-39.762279185795002</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -8941,7 +10080,7 @@
         <v>-79.646761085850997</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>15</v>
@@ -8975,8 +10114,20 @@
         <f t="shared" si="1"/>
         <v>-119.312949654292</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="8">
+        <v>0.80437099999999995</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.75202029999999997</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1.9912216E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -9012,8 +10163,12 @@
         <f t="shared" si="1"/>
         <v>-157.43770985494098</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>14</v>
@@ -9047,8 +10202,12 @@
         <f t="shared" si="1"/>
         <v>-117.647160177168</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>15</v>
@@ -9082,8 +10241,20 @@
         <f t="shared" si="1"/>
         <v>-157.350580105424</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="8">
+        <v>0.81370600000000004</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.75237790000000004</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1.8604546E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -9119,8 +10290,12 @@
         <f t="shared" si="1"/>
         <v>-196.66316096866899</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>14</v>
@@ -9154,8 +10329,12 @@
         <f t="shared" si="1"/>
         <v>-156.87387383325699</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>15</v>
@@ -9189,8 +10368,20 @@
         <f t="shared" si="1"/>
         <v>-196.56120844732598</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="8">
+        <v>0.82015899999999997</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.75240059999999997</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1.7794289000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -9226,8 +10417,12 @@
         <f t="shared" si="1"/>
         <v>-195.44687834890399</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>14</v>
@@ -9261,8 +10456,12 @@
         <f t="shared" si="1"/>
         <v>-155.63624012474202</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>15</v>
@@ -9296,8 +10495,20 @@
         <f t="shared" si="1"/>
         <v>-195.366089150574</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="8">
+        <v>0.80753600000000003</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.75189050000000002</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1.5993835000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
@@ -9333,8 +10544,12 @@
         <f t="shared" si="1"/>
         <v>-273.932308295741</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>14</v>
@@ -9368,8 +10583,12 @@
         <f t="shared" si="1"/>
         <v>-234.13343265490101</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>15</v>
@@ -9403,8 +10622,20 @@
         <f t="shared" si="1"/>
         <v>-273.84138754884299</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="8">
+        <v>0.82061099999999998</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.75229919999999995</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1.5828459E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -9440,8 +10671,12 @@
         <f t="shared" si="1"/>
         <v>-234.70594992639099</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" t="s">
         <v>14</v>
@@ -9475,8 +10710,12 @@
         <f t="shared" si="1"/>
         <v>-194.87767266056099</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" t="s">
         <v>15</v>
@@ -9510,8 +10749,20 @@
         <f t="shared" si="1"/>
         <v>-234.596937987519</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="8">
+        <v>0.82102299999999995</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.75215980000000005</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1.5946656E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
@@ -9547,8 +10798,12 @@
         <f t="shared" si="1"/>
         <v>-311.93028140364697</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>14</v>
@@ -9582,8 +10837,12 @@
         <f t="shared" si="1"/>
         <v>-272.12074605350995</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>15</v>
@@ -9617,8 +10876,20 @@
         <f t="shared" si="1"/>
         <v>-311.85685593614903</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="8">
+        <v>0.81366799999999995</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.75172410000000001</v>
+      </c>
+      <c r="O23" s="8">
+        <v>1.4188068E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -9654,8 +10925,12 @@
         <f t="shared" si="1"/>
         <v>-351.18948276571803</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>14</v>
@@ -9689,8 +10964,12 @@
         <f t="shared" si="1"/>
         <v>-311.31732243079898</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" t="s">
         <v>15</v>
@@ -9724,8 +11003,20 @@
         <f t="shared" si="1"/>
         <v>-351.04648286286402</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="8">
+        <v>0.80982299999999996</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.75119639999999999</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1.311211E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -9761,8 +11052,12 @@
         <f t="shared" si="1"/>
         <v>-311.95016580101196</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" t="s">
         <v>14</v>
@@ -9796,8 +11091,12 @@
         <f t="shared" si="1"/>
         <v>-272.08340746786001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" t="s">
         <v>15</v>
@@ -9831,8 +11130,20 @@
         <f t="shared" si="1"/>
         <v>-311.826946299197</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="8">
+        <v>0.81235100000000005</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.998</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.75100259999999996</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1.3094611000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -9868,8 +11179,12 @@
         <f t="shared" si="1"/>
         <v>-272.69037001933498</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" t="s">
         <v>14</v>
@@ -9903,8 +11218,12 @@
         <f t="shared" si="1"/>
         <v>-232.86008384312601</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" t="s">
         <v>15</v>
@@ -9938,8 +11257,20 @@
         <f t="shared" si="1"/>
         <v>-272.603261288081</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="8">
+        <v>0.83324399999999998</v>
+      </c>
+      <c r="M32" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.75159290000000001</v>
+      </c>
+      <c r="O32" s="8">
+        <v>1.6085281E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>26</v>
       </c>
@@ -9975,8 +11306,12 @@
         <f t="shared" si="1"/>
         <v>-233.424835197015</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" t="s">
         <v>14</v>
@@ -10010,8 +11345,12 @@
         <f t="shared" si="1"/>
         <v>-193.637010591408</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" t="s">
         <v>15</v>
@@ -10045,8 +11384,20 @@
         <f t="shared" si="1"/>
         <v>-233.374956546894</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="8">
+        <v>0.81179400000000002</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.75182269999999995</v>
+      </c>
+      <c r="O35" s="8">
+        <v>1.5590586E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>27</v>
       </c>
@@ -10082,8 +11433,11 @@
         <f t="shared" si="1"/>
         <v>-273.93165774596599</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>14</v>
@@ -10117,8 +11471,11 @@
         <f t="shared" si="1"/>
         <v>-234.10484778848999</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>15</v>
@@ -10152,8 +11509,20 @@
         <f t="shared" si="1"/>
         <v>-273.81059170709102</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L38" s="8">
+        <v>0.83214200000000005</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0.75234619999999996</v>
+      </c>
+      <c r="O38" s="8">
+        <v>1.5999244999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -10188,7 +11557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>13</v>
       </c>
@@ -10232,7 +11601,7 @@
         <v>60.297727205196296</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" t="s">
         <v>29</v>
@@ -10274,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>16</v>
       </c>
@@ -10318,7 +11687,7 @@
         <v>36.934713839048094</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" t="s">
         <v>29</v>
@@ -10360,7 +11729,7 @@
         <v>-17.739988150599757</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>18</v>
       </c>
@@ -10404,7 +11773,7 @@
         <v>47.028393259215129</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" t="s">
         <v>29</v>
@@ -10446,7 +11815,7 @@
         <v>-16.947731456214843</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>19</v>
       </c>
@@ -10490,7 +11859,7 @@
         <v>20.350217248230475</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" t="s">
         <v>29</v>
@@ -10532,7 +11901,7 @@
         <v>-30.345731806626556</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>20</v>
       </c>
@@ -10576,7 +11945,7 @@
         <v>34.088982056415269</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" t="s">
         <v>29</v>
@@ -10618,7 +11987,7 @@
         <v>-22.964604908806276</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>21</v>
       </c>
@@ -10662,7 +12031,7 @@
         <v>26.991583544938074</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" t="s">
         <v>29</v>
@@ -10704,7 +12073,7 @@
         <v>-41.41438920468363</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>22</v>
       </c>
@@ -10748,7 +12117,7 @@
         <v>16.421473254080066</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>29</v>
@@ -10790,7 +12159,7 @@
         <v>-29.653668430085457</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>23</v>
       </c>
@@ -10834,7 +12203,7 @@
         <v>20.782316034345861</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" t="s">
         <v>29</v>
@@ -10876,7 +12245,7 @@
         <v>-68.951410005665451</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>24</v>
       </c>
@@ -10920,7 +12289,7 @@
         <v>11.759741085605212</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" t="s">
         <v>29</v>
@@ -10962,7 +12331,7 @@
         <v>-65.561605278797401</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>25</v>
       </c>
@@ -11006,7 +12375,7 @@
         <v>11.986514292785426</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" t="s">
         <v>29</v>
@@ -11048,7 +12417,7 @@
         <v>-42.674998547666497</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>26</v>
       </c>
@@ -11092,7 +12461,7 @@
         <v>15.26932101796849</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" t="s">
         <v>29</v>
@@ -11134,7 +12503,7 @@
         <v>-16.029980840811362</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>27</v>
       </c>
@@ -11178,7 +12547,7 @@
         <v>35.476388981617752</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" t="s">
         <v>29</v>
@@ -11222,20 +12591,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -11248,6 +12603,20 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11262,7 +12631,7 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -11271,7 +12640,7 @@
     <col min="8" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" s="12" t="s">
         <v>79</v>
       </c>
@@ -11286,7 +12655,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -11318,7 +12687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -11352,7 +12721,7 @@
         <v>-55.943668759449999</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -11389,7 +12758,7 @@
         <v>-95.694080100638004</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>12</v>
@@ -11424,7 +12793,7 @@
         <v>-39.863607933509996</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>14</v>
@@ -11459,7 +12828,7 @@
         <v>-79.648171333758995</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>15</v>
@@ -11494,7 +12863,7 @@
         <v>-135.47270159990498</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -11531,7 +12900,7 @@
         <v>-173.57800297051898</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>14</v>
@@ -11566,7 +12935,7 @@
         <v>-117.65030813066299</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>15</v>
@@ -11601,7 +12970,7 @@
         <v>-173.51522973729899</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -11638,7 +13007,7 @@
         <v>-212.799694471934</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>14</v>
@@ -11673,7 +13042,7 @@
         <v>-156.87585248775</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>15</v>
@@ -11708,7 +13077,7 @@
         <v>-212.72546700354999</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
@@ -11745,7 +13114,7 @@
         <v>-211.58556386427301</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" t="s">
         <v>14</v>
@@ -11780,7 +13149,7 @@
         <v>-155.64029715093497</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>15</v>
@@ -11815,7 +13184,7 @@
         <v>-211.534986289919</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
@@ -11852,7 +13221,7 @@
         <v>-290.06754867007197</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" t="s">
         <v>14</v>
@@ -11887,7 +13256,7 @@
         <v>-234.13660348017302</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" t="s">
         <v>15</v>
@@ -11922,7 +13291,7 @@
         <v>-290.003703717186</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -11959,7 +13328,7 @@
         <v>-250.83584613606899</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" t="s">
         <v>14</v>
@@ -11994,7 +13363,7 @@
         <v>-194.88076596581399</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>15</v>
@@ -12029,7 +13398,7 @@
         <v>-250.76449643393602</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -12066,7 +13435,7 @@
         <v>-328.071232688029</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" t="s">
         <v>14</v>
@@ -12101,7 +13470,7 @@
         <v>-272.12610030376499</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>15</v>
@@ -12136,7 +13505,7 @@
         <v>-328.02505901387201</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
@@ -12173,7 +13542,7 @@
         <v>-367.32861095229396</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" t="s">
         <v>14</v>
@@ -12208,7 +13577,7 @@
         <v>-311.32016063543597</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" t="s">
         <v>15</v>
@@ -12243,7 +13612,7 @@
         <v>-367.21450796120303</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -12280,7 +13649,7 @@
         <v>-328.09906861688404</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" t="s">
         <v>14</v>
@@ -12315,7 +13684,7 @@
         <v>-272.08809359676997</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" t="s">
         <v>15</v>
@@ -12350,7 +13719,7 @@
         <v>-328.00688590746103</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>25</v>
       </c>
@@ -12387,7 +13756,7 @@
         <v>-288.84556629686796</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" t="s">
         <v>14</v>
@@ -12422,7 +13791,7 @@
         <v>-232.86619236951097</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" t="s">
         <v>15</v>
@@ -12457,7 +13826,7 @@
         <v>-288.78304653916496</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>26</v>
       </c>
@@ -12494,7 +13863,7 @@
         <v>-249.58690040037598</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" t="s">
         <v>14</v>
@@ -12530,7 +13899,7 @@
       </c>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" t="s">
         <v>15</v>
@@ -12565,7 +13934,7 @@
         <v>-249.55166351165599</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>27</v>
       </c>
@@ -12602,7 +13971,7 @@
         <v>-290.05636013854195</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -12637,7 +14006,7 @@
         <v>-234.10721523454001</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -12672,7 +14041,7 @@
         <v>-289.98032813498696</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>31</v>
       </c>
@@ -12707,7 +14076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>13</v>
       </c>
@@ -12751,7 +14120,7 @@
         <v>74.76047679470409</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" t="s">
         <v>29</v>
@@ -12793,7 +14162,7 @@
         <v>21.430724429309219</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>16</v>
       </c>
@@ -12837,7 +14206,7 @@
         <v>49.414547115162293</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" t="s">
         <v>29</v>
@@ -12879,7 +14248,7 @@
         <v>10.023778310522401</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>18</v>
       </c>
@@ -12923,7 +14292,7 @@
         <v>59.019884378563134</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" t="s">
         <v>29</v>
@@ -12965,7 +14334,7 @@
         <v>12.441479920381781</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>19</v>
       </c>
@@ -13009,7 +14378,7 @@
         <v>30.735152658972176</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" t="s">
         <v>29</v>
@@ -13051,7 +14420,7 @@
         <v>-1.0027304463373128</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>20</v>
       </c>
@@ -13095,7 +14464,7 @@
         <v>48.047436945928538</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>29</v>
@@ -13137,7 +14506,7 @@
         <v>7.9841544054049063</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>21</v>
       </c>
@@ -13181,7 +14550,7 @@
         <v>37.611817252921185</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" t="s">
         <v>29</v>
@@ -13223,7 +14592,7 @@
         <v>-7.1607629828412032</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>22</v>
       </c>
@@ -13267,7 +14636,7 @@
         <v>28.055958353173899</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" t="s">
         <v>29</v>
@@ -13309,7 +14678,7 @@
         <v>-0.91843774340433948</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>23</v>
       </c>
@@ -13353,7 +14722,7 @@
         <v>30.949643528962039</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" t="s">
         <v>29</v>
@@ -13395,7 +14764,7 @@
         <v>-40.651010307516998</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>24</v>
       </c>
@@ -13439,7 +14808,7 @@
         <v>15.610195484286022</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" t="s">
         <v>29</v>
@@ -13481,7 +14850,7 @@
         <v>-42.235284323039991</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>25</v>
       </c>
@@ -13525,7 +14894,7 @@
         <v>16.82639642830063</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" t="s">
         <v>29</v>
@@ -13567,7 +14936,7 @@
         <v>-22.405314208151687</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>26</v>
       </c>
@@ -13611,7 +14980,7 @@
         <v>22.702084823778581</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" t="s">
         <v>29</v>
@@ -13653,7 +15022,7 @@
         <v>0.59062001998450619</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>27</v>
       </c>
@@ -13697,7 +15066,7 @@
         <v>44.274436527136373</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" t="s">
         <v>29</v>
@@ -13741,6 +15110,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A59:A60"/>
@@ -13757,16 +15136,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13781,14 +15150,14 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
@@ -13803,7 +15172,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13835,7 +15204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
@@ -13869,7 +15238,7 @@
         <v>-1417.2734828538901</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
@@ -13903,7 +15272,7 @@
         <v>-1877.07706424497</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -13940,7 +15309,7 @@
         <v>-1610.92809293902</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>14</v>
@@ -13975,7 +15344,7 @@
         <v>-193.637010591408</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>15</v>
@@ -14010,7 +15379,7 @@
         <v>-1610.89012613059</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>34</v>
@@ -14047,7 +15416,7 @@
         <v>-1610.8942433255099</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
@@ -14084,7 +15453,7 @@
         <v>-1572.9530649963599</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>14</v>
@@ -14119,7 +15488,7 @@
         <v>-155.63624012474202</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>15</v>
@@ -14154,7 +15523,7 @@
         <v>-1572.8839232657499</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>34</v>
@@ -14189,7 +15558,7 @@
         <v>-1572.8953240435001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -14226,7 +15595,7 @@
         <v>-1612.2102811754401</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>14</v>
@@ -14261,7 +15630,7 @@
         <v>-194.87767266056099</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>15</v>
@@ -14296,7 +15665,7 @@
         <v>-1612.1142155208702</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>34</v>
@@ -14331,16 +15700,16 @@
         <v>-1612.1362758913401</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -14375,7 +15744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -14419,7 +15788,7 @@
         <v>10.197096418100102</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>28</v>
@@ -14461,7 +15830,7 @@
         <v>12.780673285091446</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" t="s">
         <v>36</v>
@@ -14503,7 +15872,7 @@
         <v>-11.043840705964419</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>19</v>
       </c>
@@ -14547,7 +15916,7 @@
         <v>9.0354613857596835</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>28</v>
@@ -14589,7 +15958,7 @@
         <v>16.189552030990072</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>36</v>
@@ -14631,7 +16000,7 @@
         <v>-27.197506202359971</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>21</v>
       </c>
@@ -14675,7 +16044,7 @@
         <v>9.3370974187781925</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -14717,7 +16086,7 @@
         <v>23.180178432002435</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>36</v>
@@ -14759,22 +16128,22 @@
         <v>-37.10188440149085</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
     </row>
   </sheetData>
@@ -14798,16 +16167,17 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F34" sqref="F34:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -14845,7 +16215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -14887,7 +16257,7 @@
         <v>-1.0499999999999972</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -14929,7 +16299,7 @@
         <v>4.8500000000000032</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -14971,7 +16341,7 @@
         <v>-0.94999999999999574</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -15013,7 +16383,7 @@
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -15055,7 +16425,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -15097,7 +16467,7 @@
         <v>10.049999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -15139,7 +16509,7 @@
         <v>-0.35000000000000142</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -15181,7 +16551,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -15223,7 +16593,7 @@
         <v>7.5499999999999972</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -15265,7 +16635,7 @@
         <v>-1.0000000000000036</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -15307,7 +16677,7 @@
         <v>-1.5500000000000043</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -15349,7 +16719,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -15391,7 +16761,7 @@
         <v>4.7499999999999982</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -15433,7 +16803,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -15476,7 +16846,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -15518,7 +16888,7 @@
         <v>0.85000000000000142</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -15560,7 +16930,7 @@
         <v>6.9499999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -15602,7 +16972,7 @@
         <v>-4.9999999999997158E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -15644,7 +17014,7 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -15684,7 +17054,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -15724,7 +17094,7 @@
         <v>12.650000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -15764,7 +17134,7 @@
         <v>3.6999999999999957</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -15804,65 +17174,69 @@
         <v>16.800000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A31:C49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:C49">
     <sortCondition ref="B31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15872,18 +17246,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD0D849-E756-EE49-BE80-3FBE90269E6A}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -15894,10 +17268,13 @@
         <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -15907,11 +17284,15 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>0.44768639999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="8">
+        <v>0.90031416279085852</v>
+      </c>
+      <c r="E2" s="8">
+        <f>1-(1/(1+D2^2))</f>
+        <v>0.44768640000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -15921,11 +17302,15 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
+        <v>0.62618848192949617</v>
+      </c>
+      <c r="E3" s="8">
+        <f>1-(1/(1+D3^2))</f>
         <v>0.281667</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -15935,8 +17320,10 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -15946,11 +17333,15 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
+        <v>0.5838095570732994</v>
+      </c>
+      <c r="E5" s="8">
+        <f>1-(1/(1+D5^2))</f>
         <v>0.25419530000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -15960,11 +17351,15 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0.20848530000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="8">
+        <v>0.5132255005556563</v>
+      </c>
+      <c r="E6" s="8">
+        <f>1-(1/(1+D6^2))</f>
+        <v>0.20848529999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -15974,8 +17369,10 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -15985,8 +17382,10 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -15996,11 +17395,15 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>0.1159114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="8">
+        <v>0.36208887405563145</v>
+      </c>
+      <c r="E9" s="8">
+        <f>1-(1/(1+D9^2))</f>
+        <v>0.11591139999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -16010,11 +17413,15 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>9.9385000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="8">
+        <v>0.33219327254585179</v>
+      </c>
+      <c r="E10" s="8">
+        <f>1-(1/(1+D10^2))</f>
+        <v>9.9385000000000057E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -16024,11 +17431,15 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>4.4752100000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="8">
+        <v>0.2164455512660981</v>
+      </c>
+      <c r="E11" s="8">
+        <f>1-(1/(1+D11^2))</f>
+        <v>4.4752099999999961E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -16038,8 +17449,10 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -16049,11 +17462,15 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>9.5879699999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="8">
+        <v>0.32564935551810564</v>
+      </c>
+      <c r="E13" s="8">
+        <f>1-(1/(1+D13^2))</f>
+        <v>9.5879699999999901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -16063,11 +17480,15 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
+        <v>0.21763001028561987</v>
+      </c>
+      <c r="E14" s="8">
+        <f>1-(1/(1+D14^2))</f>
         <v>4.5221025999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -16077,8 +17498,10 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -16088,8 +17511,10 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -16099,8 +17524,10 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -16110,8 +17537,10 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -16121,11 +17550,15 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>4.1357499999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="8">
+        <v>0.20770588406516152</v>
+      </c>
+      <c r="E19" s="8">
+        <f>1-(1/(1+D19^2))</f>
+        <v>4.1357499999999936E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -16135,8 +17568,10 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -16146,8 +17581,10 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -16158,8 +17595,10 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -16169,12 +17608,16 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>3.6638700000000003E-2</v>
+      <c r="D23" s="8">
+        <v>0.19501832857056711</v>
+      </c>
+      <c r="E23" s="8">
+        <f>1-(1/(1+D23^2))</f>
+        <v>3.6638699999999913E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16184,20 +17627,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B96A13-4531-9841-A4AB-E106377859A5}">
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
@@ -16209,7 +17652,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -16235,7 +17678,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -16261,7 +17704,7 @@
         <v>-117.645459</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -16287,7 +17730,7 @@
         <v>-156.87388000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -16313,7 +17756,7 @@
         <v>-155.63622799999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -16339,7 +17782,7 @@
         <v>-194.877681</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -16365,7 +17808,7 @@
         <v>-234.10395</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -16391,7 +17834,7 @@
         <v>-234.13348099999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -16417,7 +17860,7 @@
         <v>-193.63531499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -16443,7 +17886,7 @@
         <v>-272.12073400000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -16469,7 +17912,7 @@
         <v>-311.36003699999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -16495,7 +17938,7 @@
         <v>-311.31584600000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -16521,7 +17964,7 @@
         <v>-308.86216300000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -16547,7 +17990,7 @@
         <v>-153.55690000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -16573,7 +18016,7 @@
         <v>-133.68385799999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -16599,7 +18042,7 @@
         <v>-419.94913400000002</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -16625,7 +18068,7 @@
         <v>-476.195108</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -16651,7 +18094,7 @@
         <v>-192.784063</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -16677,7 +18120,7 @@
         <v>-172.910492</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -16703,7 +18146,7 @@
         <v>-459.17496499999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -16729,7 +18172,7 @@
         <v>-515.41794500000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -16755,7 +18198,7 @@
         <v>-171.679867</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -16781,7 +18224,7 @@
         <v>-210.912116</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -16807,7 +18250,7 @@
         <v>-79.645052000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -16833,7 +18276,7 @@
         <v>-118.871019</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -16859,7 +18302,7 @@
         <v>-158.09561199999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -16885,7 +18328,7 @@
         <v>-314.99775399999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -16911,7 +18354,7 @@
         <v>-156.87496200000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -16937,7 +18380,7 @@
         <v>-236.54707999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -16963,7 +18406,7 @@
         <v>-196.12908300000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -16989,7 +18432,7 @@
         <v>-196.10154299999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -17015,7 +18458,7 @@
         <v>-196.10009600000001</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -17041,7 +18484,7 @@
         <v>-196.101101</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -17067,7 +18510,7 @@
         <v>-235.36077</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -17093,7 +18536,7 @@
         <v>-235.327887</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -17119,7 +18562,7 @@
         <v>-235.32914299999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -17145,7 +18588,7 @@
         <v>-235.356616</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -17171,7 +18614,7 @@
         <v>-235.32474500000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -17197,7 +18640,7 @@
         <v>-235.325748</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -17223,7 +18666,7 @@
         <v>-194.85858099999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -17249,7 +18692,7 @@
         <v>-158.099129</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -17275,7 +18718,7 @@
         <v>-314.9948</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -17301,7 +18744,7 @@
         <v>-194.86604199999999</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -17327,7 +18770,7 @@
         <v>-236.54969</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -17353,7 +18796,7 @@
         <v>-273.361514</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>166</v>
       </c>
@@ -17379,7 +18822,7 @@
         <v>-273.36281500000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -17405,7 +18848,7 @@
         <v>-273.31518299999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -17431,7 +18874,7 @@
         <v>-273.32086099999998</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -17457,7 +18900,7 @@
         <v>-312.61206499999997</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -17483,7 +18926,7 @@
         <v>-312.59628099999998</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -17509,7 +18952,7 @@
         <v>-312.59296399999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -17535,7 +18978,7 @@
         <v>-312.59168799999998</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -17561,7 +19004,7 @@
         <v>-312.55821500000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -17587,7 +19030,7 @@
         <v>-312.56409000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -17613,7 +19056,7 @@
         <v>-312.61750999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -17639,7 +19082,7 @@
         <v>-312.56121899999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -17665,7 +19108,7 @@
         <v>-312.567701</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -17691,7 +19134,7 @@
         <v>-310.11611399999998</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -17717,7 +19160,7 @@
         <v>-115.561097</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>194</v>
       </c>
@@ -17743,7 +19186,7 @@
         <v>-154.79041699999999</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -17769,7 +19212,7 @@
         <v>-194.00100599999999</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -17795,7 +19238,7 @@
         <v>-154.770623</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -17821,7 +19264,7 @@
         <v>-95.687183000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -17847,7 +19290,7 @@
         <v>-134.91484700000001</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -17873,7 +19316,7 @@
         <v>-174.12982500000001</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -17899,7 +19342,7 @@
         <v>-134.901951</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -17925,7 +19368,7 @@
         <v>-134.91498799999999</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>209</v>
       </c>
@@ -17951,12 +19394,12 @@
         <v>-381.93453299999999</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" t="s">
         <v>211</v>
-      </c>
-      <c r="B69" t="s">
-        <v>212</v>
       </c>
       <c r="C69" s="5">
         <v>-421.59999599999998</v>
@@ -17977,12 +19420,12 @@
         <v>-421.15842500000002</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" t="s">
         <v>213</v>
-      </c>
-      <c r="B70" t="s">
-        <v>214</v>
       </c>
       <c r="C70" s="5">
         <v>-460.89478800000001</v>
@@ -18003,12 +19446,12 @@
         <v>-460.38817399999999</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
         <v>215</v>
-      </c>
-      <c r="B71" t="s">
-        <v>216</v>
       </c>
       <c r="C71" s="5">
         <v>-421.60749800000002</v>
@@ -18029,12 +19472,12 @@
         <v>-421.16538400000002</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" t="s">
         <v>217</v>
-      </c>
-      <c r="B72" t="s">
-        <v>218</v>
       </c>
       <c r="C72" s="5">
         <v>-438.55591199999998</v>
@@ -18055,12 +19498,12 @@
         <v>-438.18166200000002</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
         <v>219</v>
-      </c>
-      <c r="B73" t="s">
-        <v>220</v>
       </c>
       <c r="C73" s="5">
         <v>-477.84635900000001</v>
@@ -18081,12 +19524,12 @@
         <v>-477.40782100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s">
         <v>221</v>
-      </c>
-      <c r="B74" t="s">
-        <v>222</v>
       </c>
       <c r="C74" s="5">
         <v>-517.13410999999996</v>
@@ -18107,12 +19550,12 @@
         <v>-516.62963000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
         <v>223</v>
-      </c>
-      <c r="B75" t="s">
-        <v>224</v>
       </c>
       <c r="C75" s="5">
         <v>-477.84444200000002</v>
@@ -18133,12 +19576,12 @@
         <v>-477.40417200000002</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="s">
         <v>225</v>
-      </c>
-      <c r="B76" t="s">
-        <v>226</v>
       </c>
       <c r="C76" s="5">
         <v>-194.25998000000001</v>
@@ -18159,12 +19602,12 @@
         <v>-194.01520199999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="s">
         <v>227</v>
-      </c>
-      <c r="B77" t="s">
-        <v>228</v>
       </c>
       <c r="C77" s="5">
         <v>-174.385345</v>
@@ -18185,12 +19628,12 @@
         <v>-174.139622</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" t="s">
         <v>229</v>
-      </c>
-      <c r="B78" t="s">
-        <v>230</v>
       </c>
       <c r="C78" s="5">
         <v>-460.88817799999998</v>
@@ -18211,12 +19654,12 @@
         <v>-460.38262700000001</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" t="s">
         <v>231</v>
-      </c>
-      <c r="B79" t="s">
-        <v>232</v>
       </c>
       <c r="C79" s="5">
         <v>-517.13514699999996</v>
@@ -18237,12 +19680,12 @@
         <v>-516.63225699999998</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
         <v>233</v>
-      </c>
-      <c r="B80" t="s">
-        <v>234</v>
       </c>
       <c r="C80" s="5">
         <v>-252.947914</v>
@@ -18263,12 +19706,12 @@
         <v>-252.57247799999999</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" t="s">
         <v>235</v>
-      </c>
-      <c r="B81" t="s">
-        <v>236</v>
       </c>
       <c r="C81" s="5">
         <v>-213.657161</v>
@@ -18289,12 +19732,12 @@
         <v>-213.34509600000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" t="s">
         <v>237</v>
-      </c>
-      <c r="B82" t="s">
-        <v>238</v>
       </c>
       <c r="C82" s="5">
         <v>-173.14545899999999</v>
@@ -18315,12 +19758,12 @@
         <v>-172.91406900000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B83" t="s">
         <v>239</v>
-      </c>
-      <c r="B83" t="s">
-        <v>240</v>
       </c>
       <c r="C83" s="5">
         <v>-173.13458800000001</v>
@@ -18341,12 +19784,12 @@
         <v>-172.90225899999999</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" t="s">
         <v>241</v>
-      </c>
-      <c r="B84" t="s">
-        <v>242</v>
       </c>
       <c r="C84" s="5">
         <v>-174.38951599999999</v>
@@ -18367,12 +19810,12 @@
         <v>-174.14408900000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
         <v>243</v>
-      </c>
-      <c r="B85" t="s">
-        <v>244</v>
       </c>
       <c r="C85" s="5">
         <v>-212.46370099999999</v>
@@ -18393,12 +19836,12 @@
         <v>-212.16577000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" t="s">
         <v>245</v>
-      </c>
-      <c r="B86" t="s">
-        <v>246</v>
       </c>
       <c r="C86" s="5">
         <v>-212.438512</v>
@@ -18419,12 +19862,12 @@
         <v>-212.14241799999999</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" t="s">
         <v>247</v>
-      </c>
-      <c r="B87" t="s">
-        <v>248</v>
       </c>
       <c r="C87" s="5">
         <v>-212.43425500000001</v>
@@ -18445,12 +19888,12 @@
         <v>-212.13877600000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
         <v>249</v>
-      </c>
-      <c r="B88" t="s">
-        <v>250</v>
       </c>
       <c r="C88" s="5">
         <v>-212.429192</v>
@@ -18471,12 +19914,12 @@
         <v>-212.13310200000001</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" t="s">
         <v>251</v>
-      </c>
-      <c r="B89" t="s">
-        <v>252</v>
       </c>
       <c r="C89" s="5">
         <v>-213.66521599999999</v>
@@ -18497,12 +19940,12 @@
         <v>-213.35403400000001</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" t="s">
         <v>253</v>
-      </c>
-      <c r="B90" t="s">
-        <v>254</v>
       </c>
       <c r="C90" s="5">
         <v>-212.426728</v>
@@ -18523,12 +19966,12 @@
         <v>-212.130315</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" t="s">
         <v>255</v>
-      </c>
-      <c r="B91" t="s">
-        <v>256</v>
       </c>
       <c r="C91" s="5">
         <v>-252.956242</v>
@@ -18549,12 +19992,12 @@
         <v>-252.58171400000001</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>256</v>
+      </c>
+      <c r="B92" t="s">
         <v>257</v>
-      </c>
-      <c r="B92" t="s">
-        <v>258</v>
       </c>
       <c r="C92" s="5">
         <v>-212.42919800000001</v>
@@ -18575,12 +20018,12 @@
         <v>-212.13189800000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" t="s">
         <v>259</v>
-      </c>
-      <c r="B93" t="s">
-        <v>260</v>
       </c>
       <c r="C93" s="5">
         <v>-268.17167499999999</v>
@@ -18601,12 +20044,12 @@
         <v>-267.87957599999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
         <v>261</v>
-      </c>
-      <c r="B94" t="s">
-        <v>262</v>
       </c>
       <c r="C94" s="5">
         <v>-269.48988200000002</v>
@@ -18627,12 +20070,12 @@
         <v>-269.18565599999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
         <v>263</v>
-      </c>
-      <c r="B95" t="s">
-        <v>264</v>
       </c>
       <c r="C95" s="5">
         <v>-230.07776000000001</v>
@@ -18653,12 +20096,12 @@
         <v>-229.83275900000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" t="s">
         <v>265</v>
-      </c>
-      <c r="B96" t="s">
-        <v>266</v>
       </c>
       <c r="C96" s="5">
         <v>-194.265604</v>
@@ -18679,12 +20122,12 @@
         <v>-194.02126100000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" t="s">
         <v>267</v>
-      </c>
-      <c r="B97" t="s">
-        <v>268</v>
       </c>
       <c r="C97" s="5">
         <v>-151.51616100000001</v>
@@ -18705,12 +20148,12 @@
         <v>-151.40543199999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" t="s">
         <v>269</v>
-      </c>
-      <c r="B98" t="s">
-        <v>270</v>
       </c>
       <c r="C98" s="5">
         <v>-269.38423799999998</v>
@@ -18731,12 +20174,12 @@
         <v>-269.079275</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" t="s">
         <v>271</v>
-      </c>
-      <c r="B99" t="s">
-        <v>272</v>
       </c>
       <c r="C99" s="5">
         <v>-344.60548199999999</v>
@@ -18757,12 +20200,12 @@
         <v>-344.241601</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" t="s">
         <v>273</v>
-      </c>
-      <c r="B100" t="s">
-        <v>274</v>
       </c>
       <c r="C100" s="5">
         <v>-230.79865599999999</v>
@@ -18783,12 +20226,12 @@
         <v>-230.49111099999999</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" t="s">
         <v>275</v>
-      </c>
-      <c r="B101" t="s">
-        <v>276</v>
       </c>
       <c r="C101" s="5">
         <v>-233.25683100000001</v>
@@ -18809,12 +20252,12 @@
         <v>-232.922732</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" t="s">
         <v>277</v>
-      </c>
-      <c r="B102" t="s">
-        <v>278</v>
       </c>
       <c r="C102" s="5">
         <v>-232.12419499999999</v>
@@ -18835,12 +20278,12 @@
         <v>-231.79459399999999</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" t="s">
         <v>279</v>
-      </c>
-      <c r="B103" t="s">
-        <v>280</v>
       </c>
       <c r="C103" s="5">
         <v>-232.01908</v>
@@ -18861,12 +20304,12 @@
         <v>-231.70021299999999</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" t="s">
         <v>281</v>
-      </c>
-      <c r="B104" t="s">
-        <v>282</v>
       </c>
       <c r="C104" s="5">
         <v>-311.82174500000002</v>
@@ -18887,12 +20330,12 @@
         <v>-311.35637500000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" t="s">
         <v>283</v>
-      </c>
-      <c r="B105" t="s">
-        <v>284</v>
       </c>
       <c r="C105" s="5">
         <v>-235.699569</v>
@@ -18913,12 +20356,12 @@
         <v>-235.3366</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" t="s">
         <v>285</v>
-      </c>
-      <c r="B106" t="s">
-        <v>286</v>
       </c>
       <c r="C106" s="5">
         <v>-313.06467800000001</v>
@@ -18939,12 +20382,12 @@
         <v>-312.58340600000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" t="s">
         <v>287</v>
-      </c>
-      <c r="B107" t="s">
-        <v>288</v>
       </c>
       <c r="C107" s="5">
         <v>-234.464438</v>
@@ -18965,12 +20408,12 @@
         <v>-234.11639600000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" t="s">
         <v>289</v>
-      </c>
-      <c r="B108" t="s">
-        <v>290</v>
       </c>
       <c r="C108" s="5">
         <v>-314.29094700000002</v>
@@ -18991,12 +20434,12 @@
         <v>-313.79306700000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>290</v>
+      </c>
+      <c r="B109" t="s">
         <v>291</v>
-      </c>
-      <c r="B109" t="s">
-        <v>292</v>
       </c>
       <c r="C109" s="5">
         <v>-236.92362399999999</v>
@@ -19017,12 +20460,12 @@
         <v>-236.54462699999999</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" t="s">
         <v>293</v>
-      </c>
-      <c r="B110" t="s">
-        <v>294</v>
       </c>
       <c r="C110" s="5">
         <v>-313.04269399999998</v>
@@ -19043,12 +20486,12 @@
         <v>-312.56609700000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" t="s">
         <v>295</v>
-      </c>
-      <c r="B111" t="s">
-        <v>296</v>
       </c>
       <c r="C111" s="5">
         <v>-116.551614</v>
@@ -19069,12 +20512,12 @@
         <v>-116.398037</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>296</v>
+      </c>
+      <c r="B112" t="s">
         <v>297</v>
-      </c>
-      <c r="B112" t="s">
-        <v>298</v>
       </c>
       <c r="C112" s="5">
         <v>-155.879064</v>
@@ -19095,12 +20538,12 @@
         <v>-155.66074800000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>298</v>
+      </c>
+      <c r="B113" t="s">
         <v>299</v>
-      </c>
-      <c r="B113" t="s">
-        <v>300</v>
       </c>
       <c r="C113" s="5">
         <v>-195.20952</v>
@@ -19121,12 +20564,12 @@
         <v>-194.92437899999999</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" t="s">
         <v>301</v>
-      </c>
-      <c r="B114" t="s">
-        <v>302</v>
       </c>
       <c r="C114" s="5">
         <v>-315.500944</v>
@@ -19147,12 +20590,12 @@
         <v>-314.99365999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" t="s">
         <v>303</v>
-      </c>
-      <c r="B115" t="s">
-        <v>304</v>
       </c>
       <c r="C115" s="5">
         <v>-235.701539</v>
@@ -19173,12 +20616,12 @@
         <v>-235.338832</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" t="s">
         <v>305</v>
-      </c>
-      <c r="B116" t="s">
-        <v>306</v>
       </c>
       <c r="C116" s="5">
         <v>-233.26480799999999</v>
@@ -19199,12 +20642,12 @@
         <v>-232.92926900000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" t="s">
         <v>307</v>
-      </c>
-      <c r="B117" t="s">
-        <v>308</v>
       </c>
       <c r="C117" s="5">
         <v>-193.86120500000001</v>
@@ -19225,12 +20668,12 @@
         <v>-193.59724700000001</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" t="s">
         <v>309</v>
-      </c>
-      <c r="B118" t="s">
-        <v>310</v>
       </c>
       <c r="C118" s="5">
         <v>-233.20474300000001</v>
@@ -19251,12 +20694,12 @@
         <v>-232.87122299999999</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" t="s">
         <v>311</v>
-      </c>
-      <c r="B119" t="s">
-        <v>312</v>
       </c>
       <c r="C119" s="5">
         <v>-234.50605899999999</v>
@@ -19277,12 +20720,12 @@
         <v>-234.154009</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" t="s">
         <v>313</v>
-      </c>
-      <c r="B120" t="s">
-        <v>314</v>
       </c>
       <c r="C120" s="5">
         <v>-273.788926</v>
@@ -19303,12 +20746,12 @@
         <v>-273.37232899999998</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" t="s">
         <v>315</v>
-      </c>
-      <c r="B121" t="s">
-        <v>316</v>
       </c>
       <c r="C121" s="5">
         <v>-272.518643</v>
@@ -19329,12 +20772,12 @@
         <v>-272.11903100000001</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>316</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C122" s="5">
         <v>-351.11779999999999</v>
@@ -19355,12 +20798,12 @@
         <v>-350.58597099999997</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>318</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C123" s="5">
         <v>-390.40905099999998</v>
@@ -19381,12 +20824,12 @@
         <v>-389.812524</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" t="s">
         <v>321</v>
-      </c>
-      <c r="B124" t="s">
-        <v>322</v>
       </c>
       <c r="C124" s="5">
         <v>-352.355932</v>
@@ -19407,12 +20850,12 @@
         <v>-351.808604</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>322</v>
+      </c>
+      <c r="B125" t="s">
         <v>323</v>
-      </c>
-      <c r="B125" t="s">
-        <v>324</v>
       </c>
       <c r="C125" s="5">
         <v>-391.64080100000001</v>
@@ -19433,12 +20876,12 @@
         <v>-391.02859100000001</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>324</v>
+      </c>
+      <c r="B126" t="s">
         <v>325</v>
-      </c>
-      <c r="B126" t="s">
-        <v>326</v>
       </c>
       <c r="C126" s="5">
         <v>-275.00766700000003</v>
@@ -19459,57 +20902,57 @@
         <v>-274.57462099999998</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="E132" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="F132" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" t="s">
         <v>334</v>
-      </c>
-      <c r="B133" t="s">
-        <v>335</v>
       </c>
       <c r="C133" s="2">
         <f>((C26+C25)-(C24+C24+C3))*627.509</f>
@@ -19539,12 +20982,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C134" s="2">
         <f>((2*C26)-(C4+2*C24))*627.509</f>
@@ -19574,12 +21017,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C135" s="2">
         <f>((C4+C27)-(C5+2*C26))*627.509</f>
@@ -19609,12 +21052,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>336</v>
+      </c>
+      <c r="B136" t="s">
         <v>337</v>
-      </c>
-      <c r="B136" t="s">
-        <v>338</v>
       </c>
       <c r="C136" s="2">
         <f>((C28+C29)-(C5+2*C25))*627.509</f>
@@ -19644,12 +21087,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B137" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C137" s="2">
         <f>((C30+C27)-(C6+2*C26))*627.509</f>
@@ -19679,12 +21122,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B138" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C138" s="2">
         <f>((C31+C29)-(C6+2*C25))*627.509</f>
@@ -19714,12 +21157,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>338</v>
+      </c>
+      <c r="B139" t="s">
         <v>339</v>
-      </c>
-      <c r="B139" t="s">
-        <v>340</v>
       </c>
       <c r="C139" s="2">
         <f>((C32+C29)-(C6+2*C25))*627.509</f>
@@ -19749,12 +21192,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B140" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C140" s="2">
         <f>((C33+C26)-(C6+2*C24))*627.509</f>
@@ -19784,12 +21227,12 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B141" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C141" s="2">
         <f>((C34+C27)-(C7+2*C26))*627.509</f>
@@ -19819,12 +21262,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B142" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C142" s="2">
         <f>((C35+C29)-(C7+2*C25))*627.509</f>
@@ -19854,12 +21297,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B143" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C143" s="2">
         <f>((C36+C26)-(C7+2*C24))*627.509</f>
@@ -19889,12 +21332,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B144" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C144" s="2">
         <f>((C34+C27)-(C8+2*C26))*627.509</f>
@@ -19924,12 +21367,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B145" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C145" s="2">
         <f>((C37+C29)-(C8+2*C25))*627.509</f>
@@ -19959,12 +21402,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C146" s="2">
         <f>((C38+C29)-(C8+2*C25))*627.509</f>
@@ -19994,12 +21437,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C147" s="2">
         <f>((C39+C26)-(C8+2*C24))*627.509</f>
@@ -20029,12 +21472,12 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C148" s="2">
         <f>((C42+C40)-(C9+2*C41))*627.509</f>
@@ -20064,12 +21507,12 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C149" s="2">
         <f>((C43+C44)-(C9+C24+C41))*627.509</f>
@@ -20099,12 +21542,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B150" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C150" s="2">
         <f>((C45+C42)-(C10+2*C41))*627.509</f>
@@ -20134,12 +21577,12 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C151" s="2">
         <f>((C46+C44)-(C10+C24+C41))*627.509</f>
@@ -20169,12 +21612,12 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C152" s="2">
         <f>((C47+C44)-(C10+C24+C41))*627.509</f>
@@ -20204,12 +21647,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B153" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C153" s="2">
         <f>((C48+C44)-(C10+C24+C41))*627.509</f>
@@ -20239,12 +21682,12 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C154" s="2">
         <f>((C49+C42)-(C11+2*C41))*627.509</f>
@@ -20274,12 +21717,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C155" s="2">
         <f>((C50+C44)-(C11+C24+C41))*627.509</f>
@@ -20309,12 +21752,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B156" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C156" s="2">
         <f>((C51+C44)-(C11+C24+C41))*627.509</f>
@@ -20344,12 +21787,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B157" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C157" s="2">
         <f>((C52+C26)-(C11+2*C24))*627.509</f>
@@ -20379,12 +21822,12 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>345</v>
+      </c>
+      <c r="B158" t="s">
         <v>346</v>
-      </c>
-      <c r="B158" t="s">
-        <v>347</v>
       </c>
       <c r="C158" s="2">
         <f>((C53+C44)-(C11+C24+C41))*627.509</f>
@@ -20414,12 +21857,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B159" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C159" s="2">
         <f>((C54+C26)-(C11+2*C24))*627.509</f>
@@ -20449,12 +21892,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B160" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C160" s="2">
         <f>((C55+C42)-(C12+2*C41))*627.509</f>
@@ -20484,12 +21927,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C161" s="2">
         <f>((C56+C44)-(C12+C24+C41))*627.509</f>
@@ -20519,12 +21962,12 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C162" s="2">
         <f>((C57+C26)-(C12+2*C24))*627.509</f>
@@ -20554,12 +21997,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C163" s="2">
         <f>((C58+C27)-(C13+2*C26))*627.509</f>
@@ -20589,12 +22032,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C164" s="2">
         <f>((C61+C60)-(C14+C24+C59))*627.509</f>
@@ -20624,12 +22067,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B165" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C165" s="2">
         <f>((C62+2*C60)-(C14+2*C59+C24))*627.509</f>
@@ -20659,12 +22102,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C166" s="2">
         <f>((C64+C65)-(C15+C24+C63))*627.509</f>
@@ -20694,12 +22137,12 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B167" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C167" s="2">
         <f>((C66+2*C64)-(C15+2*C63+C24))*627.509</f>
@@ -20729,12 +22172,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C168" s="2">
         <f>((C69+C70)-(C16+C24+C68))*627.509</f>
@@ -20764,12 +22207,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C169" s="2">
         <f>((C71+2*C69)-(C16+2*C68+C24))*627.509</f>
@@ -20799,12 +22242,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C170" s="2">
         <f>((C73+C74)-(C17+C24+C72))*627.509</f>
@@ -20834,12 +22277,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C171" s="2">
         <f>((C75+2*C73)-(C17+2*C72+C24))*627.509</f>
@@ -20869,12 +22312,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B172" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C172" s="2">
         <f>((C76+C61)-(C18+C24+C59))*627.509</f>
@@ -20904,12 +22347,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B173" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C173" s="2">
         <f>((C76+C61)-(C18+C24+C59))*627.509</f>
@@ -20939,12 +22382,12 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B174" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C174" s="2">
         <f>((C77+C65)-(C19+C24+C63))*627.509</f>
@@ -20974,12 +22417,12 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B175" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C175" s="2">
         <f>((C77+C65)-(C19+C24+C63))*627.509</f>
@@ -21009,12 +22452,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B176" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C176" s="2">
         <f t="shared" ref="C176:H176" si="43">((C78+C70)-(C20+C24+C68))*627.509</f>
@@ -21044,12 +22487,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B177" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C177" s="2">
         <f>((C78+C70)-(C20+C24+C68))*627.509</f>
@@ -21079,12 +22522,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C178" s="2">
         <f t="shared" ref="C178:H178" si="45">((C79+C74)-(C21+C24+C72))*627.509</f>
@@ -21114,12 +22557,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B179" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C179" s="2">
         <f>((C79+C74)-(C21+C24+C72))*627.509</f>
@@ -21149,12 +22592,12 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C180" s="2">
         <f>((C19+C80)-(C22+C25+C66))*627.509</f>
@@ -21184,12 +22627,12 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C181" s="2">
         <f>((C82+C81)-(C22+C24+C66))*627.509</f>
@@ -21219,12 +22662,12 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C182" s="2">
         <f>((C83+C84)-(C22+C63+C24))*627.509</f>
@@ -21254,12 +22697,12 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C183" s="2">
         <f>((C85+C80)-(C23+C25+C66))*627.509</f>
@@ -21289,12 +22732,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B184" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C184" s="2">
         <f>((C86+C81)-(C23+C24+C66))*627.509</f>
@@ -21324,12 +22767,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B185" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C185" s="2">
         <f>((C87+C81)-(C23+C24+C66))*627.509</f>
@@ -21359,12 +22802,12 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B186" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C186" s="2">
         <f>((C88+C89)-(C23+C24+C66))*627.509</f>
@@ -21394,12 +22837,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B187" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C187" s="2">
         <f>((C90+C91)-(C23+C24+C65))*627.509</f>
@@ -21429,12 +22872,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B188" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C188" s="2">
         <f>((C92+C84)-(C23+C24+C63))*627.509</f>
@@ -21464,12 +22907,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B189" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C189" s="2">
         <f>((C94+C95)-(C93+2*C59))*627.509</f>
@@ -21499,12 +22942,12 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B190" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C190" s="2">
         <f>((C98+C99)-(C93+C96+C97))*627.509</f>
@@ -21534,12 +22977,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>360</v>
+      </c>
+      <c r="B191" t="s">
         <v>361</v>
-      </c>
-      <c r="B191" t="s">
-        <v>362</v>
       </c>
       <c r="C191" s="2">
         <f>((C102+C103)-(C100+C101))*627.509</f>
@@ -21569,12 +23012,12 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B192" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C192" s="2">
         <f>((C103+C102)-(C100+C116))*627.509</f>
@@ -21604,12 +23047,12 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>363</v>
+      </c>
+      <c r="B193" t="s">
         <v>364</v>
-      </c>
-      <c r="B193" t="s">
-        <v>365</v>
       </c>
       <c r="C193" s="2">
         <f t="shared" ref="C193:H193" si="60">((C106+C107)-(C104+C105))*627.509</f>
@@ -21639,12 +23082,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B194" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C194" s="2">
         <f>((C107+C106)-(C104+C115))*627.509</f>
@@ -21674,12 +23117,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C195" s="2">
         <f>((C34+C110)-(C104+C109))*627.509</f>
@@ -21709,12 +23152,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B196" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C196" s="2">
         <f>((C26+C110)-(C104+2*C24))*627.509</f>
@@ -21744,12 +23187,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B197" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C197" s="2">
         <f>((C108+C105)-(C106+C109))*627.509</f>
@@ -21779,12 +23222,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B198" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C198" s="2">
         <f>((C115+C108)-(C106+C109))*627.509</f>
@@ -21814,12 +23257,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B199" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C199" s="2">
         <f>((C3+C105)-(C111+C109))*627.509</f>
@@ -21849,12 +23292,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C200" s="2">
         <f>((C115+C3)-(C111+C109))*627.509</f>
@@ -21884,12 +23327,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B201" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C201" s="2">
         <f>((C4+C105)-(C112+C109))*627.509</f>
@@ -21919,12 +23362,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C202" s="2">
         <f>((C115+C4)-(C109+C112))*627.509</f>
@@ -21954,12 +23397,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C203" s="2">
         <f>((C30+C105)-(C113+C109))*627.509</f>
@@ -21989,12 +23432,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C204" s="2">
         <f>((C115+C30)-(C109+C113))*627.509</f>
@@ -22024,248 +23467,318 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B205" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C205" s="2">
+        <f>((C34+C105)-(C119+C109))*627.509</f>
+        <v>0.83646949695696349</v>
+      </c>
+      <c r="D205" s="2">
+        <f t="shared" ref="D205:H205" si="72">((D34+D105)-(D119+D109))*627.509</f>
+        <v>0.85278473102278074</v>
+      </c>
+      <c r="E205" s="2">
+        <f t="shared" si="72"/>
+        <v>0.48067189399919186</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="72"/>
+        <v>1.1495964879867981</v>
+      </c>
+      <c r="G205" s="2">
+        <f t="shared" si="72"/>
+        <v>1.1659117220526154</v>
+      </c>
+      <c r="H205" s="2">
+        <f t="shared" si="72"/>
+        <v>0.79442639399177262</v>
+      </c>
+      <c r="I205">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>372</v>
+      </c>
+      <c r="B206" t="s">
+        <v>365</v>
+      </c>
+      <c r="C206" s="2">
         <f>((C34+C115)-(C119+C109))*627.509</f>
         <v>-0.39972323302521884</v>
       </c>
-      <c r="D205" s="2">
-        <f t="shared" ref="D205:H205" si="72">((D34+D115)-(D119+D109))*627.509</f>
+      <c r="D206" s="2">
+        <f t="shared" ref="D206:H206" si="73">((D34+D115)-(D119+D109))*627.509</f>
         <v>-0.56664062699616025</v>
       </c>
-      <c r="E205" s="2">
-        <f t="shared" si="72"/>
+      <c r="E206" s="2">
+        <f t="shared" si="73"/>
         <v>-0.9695014050134575</v>
       </c>
-      <c r="F205" s="2">
-        <f t="shared" si="72"/>
+      <c r="F206" s="2">
+        <f t="shared" si="73"/>
         <v>-3.7023031013535102E-2</v>
       </c>
-      <c r="G205" s="2">
-        <f t="shared" si="72"/>
+      <c r="G206" s="2">
+        <f t="shared" si="73"/>
         <v>-0.20456793398289222</v>
       </c>
-      <c r="H205" s="2">
-        <f t="shared" si="72"/>
+      <c r="H206" s="2">
+        <f t="shared" si="73"/>
         <v>-0.60617369403902788</v>
       </c>
-      <c r="I205">
+      <c r="I206">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
-      <c r="A206" t="s">
-        <v>374</v>
-      </c>
-      <c r="B206" t="s">
-        <v>366</v>
-      </c>
-      <c r="C206" s="2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>373</v>
+      </c>
+      <c r="B207" t="s">
+        <v>364</v>
+      </c>
+      <c r="C207" s="2">
+        <f>((C126+C105)-(C120+C109))*627.509</f>
+        <v>3.3345828259633805</v>
+      </c>
+      <c r="D207" s="2">
+        <f t="shared" ref="D207:H207" si="74">((D126+D105)-(D120+D109))*627.509</f>
+        <v>3.5391507600176122</v>
+      </c>
+      <c r="E207" s="2">
+        <f t="shared" si="74"/>
+        <v>3.4939701120246731</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="74"/>
+        <v>3.4387493199857437</v>
+      </c>
+      <c r="G207" s="2">
+        <f t="shared" si="74"/>
+        <v>3.6433172540399754</v>
+      </c>
+      <c r="H207" s="2">
+        <f t="shared" si="74"/>
+        <v>3.5987641150097822</v>
+      </c>
+      <c r="I207">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>373</v>
+      </c>
+      <c r="B208" t="s">
+        <v>365</v>
+      </c>
+      <c r="C208" s="2">
         <f>((C126+C115)-(C120+C109))*627.509</f>
         <v>2.0983900959811983</v>
       </c>
-      <c r="D206" s="2">
-        <f t="shared" ref="D206:H206" si="73">((D126+D115)-(D120+D109))*627.509</f>
+      <c r="D208" s="2">
+        <f t="shared" ref="D208:H208" si="75">((D126+D115)-(D120+D109))*627.509</f>
         <v>2.1197254019986715</v>
       </c>
-      <c r="E206" s="2">
-        <f t="shared" si="73"/>
+      <c r="E208" s="2">
+        <f t="shared" si="75"/>
         <v>2.0437968129763542</v>
       </c>
-      <c r="F206" s="2">
-        <f t="shared" si="73"/>
+      <c r="F208" s="2">
+        <f t="shared" si="75"/>
         <v>2.25212980098541</v>
       </c>
-      <c r="G206" s="2">
-        <f t="shared" si="73"/>
+      <c r="G208" s="2">
+        <f t="shared" si="75"/>
         <v>2.2728375980044677</v>
       </c>
-      <c r="H206" s="2">
-        <f t="shared" si="73"/>
+      <c r="H208" s="2">
+        <f t="shared" si="75"/>
         <v>2.1981640269789815</v>
       </c>
-      <c r="I206">
+      <c r="I208">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
-      <c r="A207" t="s">
-        <v>375</v>
-      </c>
-      <c r="B207" t="s">
-        <v>366</v>
-      </c>
-      <c r="C207" s="2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>374</v>
+      </c>
+      <c r="B209" t="s">
+        <v>365</v>
+      </c>
+      <c r="C209" s="2">
         <f>((C113+C107)-(C117+C115))*627.509</f>
         <v>-69.787785925975712</v>
       </c>
-      <c r="D207" s="2">
-        <f t="shared" ref="D207:H207" si="74">((D113+D107)-(D117+D115))*627.509</f>
+      <c r="D209" s="2">
+        <f t="shared" ref="D209:H209" si="76">((D113+D107)-(D117+D115))*627.509</f>
         <v>-68.876015348994841</v>
       </c>
-      <c r="E207" s="2">
-        <f t="shared" si="74"/>
+      <c r="E209" s="2">
+        <f t="shared" si="76"/>
         <v>-68.672074923974705</v>
       </c>
-      <c r="F207" s="2">
-        <f t="shared" si="74"/>
+      <c r="F209" s="2">
+        <f t="shared" si="76"/>
         <v>-66.813393265959007</v>
       </c>
-      <c r="G207" s="2">
-        <f t="shared" si="74"/>
+      <c r="G209" s="2">
+        <f t="shared" si="76"/>
         <v>-65.9009951800154</v>
       </c>
-      <c r="H207" s="2">
-        <f t="shared" si="74"/>
+      <c r="H209" s="2">
+        <f t="shared" si="76"/>
         <v>-65.69768226399367</v>
       </c>
-      <c r="I207">
+      <c r="I209">
         <v>0.107</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
-      <c r="A208" t="s">
-        <v>376</v>
-      </c>
-      <c r="B208" t="s">
-        <v>366</v>
-      </c>
-      <c r="C208" s="2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>375</v>
+      </c>
+      <c r="B210" t="s">
+        <v>365</v>
+      </c>
+      <c r="C210" s="2">
         <f>((C119+C107)-(C118+C115))*627.509</f>
         <v>-40.295490434993816</v>
       </c>
-      <c r="D208" s="2">
-        <f t="shared" ref="D208:H208" si="75">((D119+D107)-(D118+D115))*627.509</f>
+      <c r="D210" s="2">
+        <f t="shared" ref="D210:H210" si="77">((D119+D107)-(D118+D115))*627.509</f>
         <v>-39.387484912003444</v>
       </c>
-      <c r="E208" s="2">
-        <f t="shared" si="75"/>
+      <c r="E210" s="2">
+        <f t="shared" si="77"/>
         <v>-38.989016697010726</v>
       </c>
-      <c r="F208" s="2">
-        <f t="shared" si="75"/>
+      <c r="F210" s="2">
+        <f t="shared" si="77"/>
         <v>-39.176641888000724</v>
       </c>
-      <c r="G208" s="2">
-        <f t="shared" si="75"/>
+      <c r="G210" s="2">
+        <f t="shared" si="77"/>
         <v>-38.268008856011939</v>
       </c>
-      <c r="H208" s="2">
-        <f t="shared" si="75"/>
+      <c r="H210" s="2">
+        <f t="shared" si="77"/>
         <v>-37.870168149981964</v>
       </c>
-      <c r="I208">
+      <c r="I210">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
-      <c r="A209" t="s">
-        <v>377</v>
-      </c>
-      <c r="B209" t="s">
-        <v>366</v>
-      </c>
-      <c r="C209" s="2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>376</v>
+      </c>
+      <c r="B211" t="s">
+        <v>365</v>
+      </c>
+      <c r="C211" s="2">
         <f>((C120+C107)-(C121+C115))*627.509</f>
         <v>-20.822003638006716</v>
       </c>
-      <c r="D209" s="2">
-        <f t="shared" ref="D209:H209" si="76">((D120+D107)-(D121+D115))*627.509</f>
+      <c r="D211" s="2">
+        <f t="shared" ref="D211:H211" si="78">((D120+D107)-(D121+D115))*627.509</f>
         <v>-20.151196516988193</v>
       </c>
-      <c r="E209" s="2">
-        <f t="shared" si="76"/>
+      <c r="E211" s="2">
+        <f t="shared" si="78"/>
         <v>-20.28109088001694</v>
       </c>
-      <c r="F209" s="2">
-        <f t="shared" si="76"/>
+      <c r="F211" s="2">
+        <f t="shared" si="78"/>
         <v>-19.907095515962432</v>
       </c>
-      <c r="G209" s="2">
-        <f t="shared" si="76"/>
+      <c r="G211" s="2">
+        <f t="shared" si="78"/>
         <v>-19.235660886016834</v>
       </c>
-      <c r="H209" s="2">
-        <f t="shared" si="76"/>
+      <c r="H211" s="2">
+        <f t="shared" si="78"/>
         <v>-19.366182758008325</v>
       </c>
-      <c r="I209">
+      <c r="I211">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
-      <c r="A210" t="s">
-        <v>378</v>
-      </c>
-      <c r="B210" t="s">
-        <v>366</v>
-      </c>
-      <c r="C210" s="2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>377</v>
+      </c>
+      <c r="B212" t="s">
+        <v>365</v>
+      </c>
+      <c r="C212" s="2">
         <f>((C124+C107)-(C122+C115))*627.509</f>
         <v>-0.64696177900738738</v>
       </c>
-      <c r="D210" s="2">
-        <f t="shared" ref="D210:H210" si="77">((D124+D107)-(D122+D115))*627.509</f>
+      <c r="D212" s="2">
+        <f t="shared" ref="D212:H212" si="79">((D124+D107)-(D122+D115))*627.509</f>
         <v>-0.13867948900656552</v>
       </c>
-      <c r="E210" s="2">
-        <f t="shared" si="77"/>
+      <c r="E212" s="2">
+        <f t="shared" si="79"/>
         <v>-0.61056625695659816</v>
       </c>
-      <c r="F210" s="2">
-        <f t="shared" si="77"/>
+      <c r="F212" s="2">
+        <f t="shared" si="79"/>
         <v>-0.16001479502403856</v>
       </c>
-      <c r="G210" s="2">
-        <f t="shared" si="77"/>
+      <c r="G212" s="2">
+        <f t="shared" si="79"/>
         <v>0.34889500397519896</v>
       </c>
-      <c r="H210" s="2">
-        <f t="shared" si="77"/>
+      <c r="H212" s="2">
+        <f t="shared" si="79"/>
         <v>-0.1236192729732494</v>
       </c>
-      <c r="I210">
+      <c r="I212">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
-      <c r="A211" t="s">
-        <v>379</v>
-      </c>
-      <c r="B211" t="s">
-        <v>366</v>
-      </c>
-      <c r="C211" s="2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>378</v>
+      </c>
+      <c r="B213" t="s">
+        <v>365</v>
+      </c>
+      <c r="C213" s="2">
         <f>((C107+C125)-(C123+C115))*627.509</f>
         <v>3.3578006590117706</v>
       </c>
-      <c r="D211" s="2">
-        <f t="shared" ref="D211:H211" si="78">((D107+D125)-(D123+D115))*627.509</f>
+      <c r="D213" s="2">
+        <f t="shared" ref="D213:H213" si="80">((D107+D125)-(D123+D115))*627.509</f>
         <v>4.0317453250223725</v>
       </c>
-      <c r="E211" s="2">
-        <f t="shared" si="78"/>
+      <c r="E213" s="2">
+        <f t="shared" si="80"/>
         <v>4.4314685580119209</v>
       </c>
-      <c r="F211" s="2">
-        <f t="shared" si="78"/>
+      <c r="F213" s="2">
+        <f t="shared" si="80"/>
         <v>2.9229369219682635</v>
       </c>
-      <c r="G211" s="2">
-        <f t="shared" si="78"/>
+      <c r="G213" s="2">
+        <f t="shared" si="80"/>
         <v>3.5975090969772809</v>
       </c>
-      <c r="H211" s="2">
-        <f t="shared" si="78"/>
+      <c r="H213" s="2">
+        <f t="shared" si="80"/>
         <v>3.9966048209684142</v>
       </c>
-      <c r="I211">
+      <c r="I213">
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
@@ -22285,11 +23798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C537D-6023-5B41-957C-ADF5EE2842E4}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
@@ -22299,14 +23812,14 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -22317,7 +23830,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>89</v>
@@ -22329,21 +23842,21 @@
         <v>90</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
         <v>381</v>
-      </c>
-      <c r="B3" t="s">
-        <v>382</v>
       </c>
       <c r="C3" s="5">
         <v>-204.02312080219599</v>
@@ -22365,12 +23878,12 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
         <v>287</v>
-      </c>
-      <c r="B4" t="s">
-        <v>288</v>
       </c>
       <c r="C4" s="5">
         <v>-234.464438</v>
@@ -22399,9 +23912,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C5" s="5">
         <v>-438.458391423438</v>
@@ -22423,12 +23936,12 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" t="s">
         <v>384</v>
-      </c>
-      <c r="B6" t="s">
-        <v>385</v>
       </c>
       <c r="C6" s="5">
         <v>-438.59071210112899</v>
@@ -22450,12 +23963,12 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
         <v>281</v>
-      </c>
-      <c r="B7" t="s">
-        <v>282</v>
       </c>
       <c r="C7" s="5">
         <v>-311.82174500000002</v>
@@ -22484,9 +23997,9 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C8" s="5">
         <v>-515.83020225106304</v>
@@ -22508,12 +24021,12 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s">
         <v>387</v>
-      </c>
-      <c r="B9" t="s">
-        <v>388</v>
       </c>
       <c r="C9" s="5">
         <v>-515.967179352568</v>
@@ -22535,12 +24048,12 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" t="s">
         <v>393</v>
-      </c>
-      <c r="B10" t="s">
-        <v>394</v>
       </c>
       <c r="C10" s="5">
         <v>-510.30194577431899</v>
@@ -22569,9 +24082,9 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C11" s="5">
         <v>-714.31572048048804</v>
@@ -22593,12 +24106,12 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" t="s">
         <v>396</v>
-      </c>
-      <c r="B12" t="s">
-        <v>397</v>
       </c>
       <c r="C12" s="5">
         <v>-714.45018029917799</v>
@@ -22620,9 +24133,9 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C13" s="5">
         <v>-714.31169053061103</v>
@@ -22644,12 +24157,12 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" t="s">
         <v>399</v>
-      </c>
-      <c r="B14" t="s">
-        <v>400</v>
       </c>
       <c r="C14" s="5">
         <v>-714.44692771651603</v>
@@ -22671,12 +24184,12 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" t="s">
         <v>401</v>
-      </c>
-      <c r="B15" t="s">
-        <v>402</v>
       </c>
       <c r="C15" s="5">
         <v>-616.56141335145605</v>
@@ -22705,9 +24218,9 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C16" s="5">
         <v>-820.57525556147596</v>
@@ -22729,12 +24242,12 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" t="s">
         <v>404</v>
-      </c>
-      <c r="B17" t="s">
-        <v>405</v>
       </c>
       <c r="C17" s="5">
         <v>-820.69725258746598</v>
@@ -22756,12 +24269,12 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C18" s="5">
         <v>-272.51863500746998</v>
@@ -22790,9 +24303,9 @@
         <v>8.199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C19" s="5">
         <v>-476.53517718357398</v>
@@ -22814,12 +24327,12 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" t="s">
         <v>408</v>
-      </c>
-      <c r="B20" t="s">
-        <v>409</v>
       </c>
       <c r="C20" s="5">
         <v>-476.68215672919001</v>
@@ -22841,12 +24354,12 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C21" s="5">
         <v>-351.117877512115</v>
@@ -22875,9 +24388,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C22" s="5">
         <v>-555.11633047603198</v>
@@ -22899,12 +24412,12 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" t="s">
         <v>412</v>
-      </c>
-      <c r="B23" t="s">
-        <v>413</v>
       </c>
       <c r="C23" s="5">
         <v>-555.25069896772595</v>
@@ -22926,12 +24439,12 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
         <v>319</v>
-      </c>
-      <c r="B24" t="s">
-        <v>320</v>
       </c>
       <c r="C24" s="5">
         <v>-390.40803278622502</v>
@@ -22960,9 +24473,9 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C25" s="5">
         <v>-594.40933693706995</v>
@@ -22984,12 +24497,12 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" t="s">
         <v>415</v>
-      </c>
-      <c r="B26" t="s">
-        <v>416</v>
       </c>
       <c r="C26" s="5">
         <v>-594.53772509761302</v>
@@ -23011,12 +24524,12 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" t="s">
         <v>417</v>
-      </c>
-      <c r="B27" t="s">
-        <v>418</v>
       </c>
       <c r="C27" s="5">
         <v>-464.189849574307</v>
@@ -23045,9 +24558,9 @@
         <v>0.10200000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C28" s="5">
         <v>-668.19994377437604</v>
@@ -23069,12 +24582,12 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" t="s">
         <v>420</v>
-      </c>
-      <c r="B29" t="s">
-        <v>421</v>
       </c>
       <c r="C29" s="5">
         <v>-668.33733087982296</v>
@@ -23096,9 +24609,9 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C30" s="5">
         <v>-668.20060541801899</v>
@@ -23120,12 +24633,12 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" t="s">
         <v>423</v>
-      </c>
-      <c r="B31" t="s">
-        <v>424</v>
       </c>
       <c r="C31" s="5">
         <v>-668.33551144804903</v>
@@ -23147,12 +24660,12 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C32" s="5">
         <v>-464.18694098085399</v>
@@ -23181,9 +24694,9 @@
         <v>8.1500000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C33" s="5">
         <v>-668.19992579836901</v>
@@ -23205,12 +24718,12 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C34" s="5">
         <v>-668.32994928728704</v>
@@ -23232,12 +24745,12 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C35" s="5">
         <v>-1274.43851155117</v>
@@ -23266,9 +24779,9 @@
         <v>8.4999999999999992E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C36" s="5">
         <v>-1478.44763510844</v>
@@ -23290,12 +24803,12 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C37" s="5">
         <v>-1478.5869121601299</v>
@@ -23317,9 +24830,9 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C38" s="5">
         <v>-1478.45123201161</v>
@@ -23341,12 +24854,12 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C39" s="5">
         <v>-1478.58728509249</v>
@@ -23368,49 +24881,49 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C42" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>389</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>390</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -23436,12 +24949,12 @@
         <v>31.997675811612474</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>389</v>
+      </c>
+      <c r="B45" t="s">
         <v>390</v>
-      </c>
-      <c r="B45" t="s">
-        <v>391</v>
       </c>
       <c r="C45" s="2">
         <f>(C6-(C$3+C$4))*627.509</f>
@@ -23464,9 +24977,9 @@
         <v>-46.384478525247999</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -23493,12 +25006,12 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2">
         <f>(C9-(C$3+C$7))*627.509</f>
@@ -23521,12 +25034,12 @@
         <v>-57.806506774585877</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>438</v>
+      </c>
+      <c r="B48" t="s">
         <v>439</v>
-      </c>
-      <c r="B48" t="s">
-        <v>440</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ref="C48:D51" si="5">(C11-(C$3+C$10))*627.509</f>
@@ -23549,12 +25062,12 @@
         <v>19.252842781496437</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="5"/>
@@ -23577,12 +25090,12 @@
         <v>-59.135336891132006</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="5"/>
@@ -23605,12 +25118,12 @@
         <v>21.549946051466442</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="5"/>
@@ -23633,9 +25146,9 @@
         <v>-57.241954853912695</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -23661,12 +25174,12 @@
         <v>19.785239862709535</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2">
         <f>(C17-(C$3+C$15))*627.509</f>
@@ -23689,9 +25202,9 @@
         <v>-52.512839932399721</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -23717,12 +25230,12 @@
         <v>16.62610093511983</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2">
         <f>(C20-(C$3+C$18))*627.509</f>
@@ -23745,9 +25258,9 @@
         <v>-69.534948618563291</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -23773,12 +25286,12 @@
         <v>28.260454015128484</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2">
         <f>(C23-(C$3+C$21))*627.509</f>
@@ -23801,9 +25314,9 @@
         <v>-50.483111088141065</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
@@ -23829,12 +25342,12 @@
         <v>27.409869338818385</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2">
         <f>(C26-(C$3+C$24))*627.509</f>
@@ -23857,12 +25370,12 @@
         <v>-47.678744351737635</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ref="C60:D63" si="13">(C28-(C$3+C$27))*627.509</f>
@@ -23885,12 +25398,12 @@
         <v>21.443373935817718</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="13"/>
@@ -23913,12 +25426,12 @@
         <v>-58.949563050592602</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="13"/>
@@ -23941,12 +25454,12 @@
         <v>21.208247641318806</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="13"/>
@@ -23969,9 +25482,9 @@
         <v>-58.347240095078703</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
@@ -23997,12 +25510,12 @@
         <v>19.22972145750547</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C65" s="2">
         <f>(C34-(C$3+C$32))*627.509</f>
@@ -24025,12 +25538,12 @@
         <v>-56.742709998060484</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2">
         <f>(C36-(C$3+C$35))*627.509</f>
@@ -24053,12 +25566,12 @@
         <v>21.764177139686709</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" ref="C67:D67" si="19">(C37-(C$3+C$35))*627.509</f>
@@ -24081,12 +25594,12 @@
         <v>-59.076321232141396</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" ref="C68:D68" si="21">(C38-(C$3+C$35))*627.509</f>
@@ -24109,12 +25622,12 @@
         <v>20.428163691542657</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" ref="C69:D69" si="22">(C39-(C$3+C$35))*627.509</f>
@@ -24137,37 +25650,37 @@
         <v>-58.907080053061023</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B74" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="B75" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="E75" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F75" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C76" s="2">
         <f>E46-E$46</f>
@@ -24190,12 +25703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C77" s="2">
         <f>E44-E$46</f>
@@ -24218,12 +25731,12 @@
         <v>0.80079999999999918</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C78" s="2">
         <f>E48-E$46</f>
@@ -24246,12 +25759,12 @@
         <v>-1.2583999999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C79" s="2">
         <f>E50-E$46</f>
@@ -24274,12 +25787,12 @@
         <v>-1.2583999999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C80" s="2">
         <f>E52-E$46</f>
@@ -24302,12 +25815,12 @@
         <v>-5.7200000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C81" s="2">
         <f>E54-E$46</f>
@@ -24330,12 +25843,12 @@
         <v>-0.57199999999999895</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C82" s="2">
         <f>E56-E$46</f>
@@ -24358,12 +25871,12 @@
         <v>0.22880000000000023</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C83" s="2">
         <f>E58-E$46</f>
@@ -24386,12 +25899,12 @@
         <v>0.34320000000000034</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C84" s="2">
         <f>E60-E$46</f>
@@ -24414,12 +25927,12 @@
         <v>-2.8600000000000012</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C85" s="2">
         <f>E62-E$46</f>
@@ -24442,12 +25955,12 @@
         <v>-2.8600000000000012</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C86" s="2">
         <f>E64-E$46</f>
@@ -24470,12 +25983,12 @@
         <v>-0.51480000000000048</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C87" s="2">
         <f>E66-E$46</f>
@@ -24498,12 +26011,12 @@
         <v>-0.91519999999999924</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C88" s="2">
         <f>E68-E$46</f>

--- a/energies.xlsx
+++ b/energies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alistairsterling/Dropbox Google/Dropbox/Alistair-delocalisation/JACS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alistairsterling/Dropbox Google/Dropbox/Alistair-delocalisation/ACIE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4B38D3-DAE8-F54A-AFB1-0D43410DCCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65769715-FD31-EB46-AC72-8FAE196F12F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="5" xr2:uid="{66DEA501-7ED3-D942-A16A-9C3E7027997A}"/>
+    <workbookView xWindow="2440" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="7" xr2:uid="{66DEA501-7ED3-D942-A16A-9C3E7027997A}"/>
   </bookViews>
   <sheets>
     <sheet name="Me• addition" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Delocalisation values" sheetId="5" r:id="rId5"/>
     <sheet name="Balanced reactions" sheetId="6" r:id="rId6"/>
     <sheet name="Cycloaddition" sheetId="7" r:id="rId7"/>
+    <sheet name="MLR predictions" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="506">
   <si>
     <t>B2PLYP-D3BJ/def2-TZVP</t>
   </si>
@@ -1541,6 +1564,359 @@
   </si>
   <si>
     <t>ethylphosphine</t>
+  </si>
+  <si>
+    <t>CH3• addition</t>
+  </si>
+  <si>
+    <r>
+      <t>ethane (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cyclopropane (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cyclobutane (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BCB (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BC310H (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BC210P (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>311P (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>222P (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>221P (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>211P (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>111P (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BC220H (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>∆Hr</t>
+  </si>
+  <si>
+    <t>2–Nocc</t>
+  </si>
+  <si>
+    <t>D/D0</t>
+  </si>
+  <si>
+    <t>∆H‡ calc.</t>
+  </si>
+  <si>
+    <t>∆H‡ pred. (2–Nocc)</t>
+  </si>
+  <si>
+    <t>∆H‡ pred. (D/D0)</t>
+  </si>
+  <si>
+    <t>∆H‡ pred. (n3)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Error (2–Nocc)</t>
+  </si>
+  <si>
+    <t>Error (D/D0)</t>
+  </si>
+  <si>
+    <t>Error (n3)</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NH2– addition</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1976,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1608,11 +1984,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1627,6 +2012,8 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3242,7 +3629,7 @@
                 <c:pt idx="4">
                   <c:v>0.5132255005556563</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>0.36208887405563145</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -3672,7 +4059,7 @@
                 <c:pt idx="4">
                   <c:v>0.20848529999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>0.11591139999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -9939,8 +10326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9806142-4C36-ED4C-A883-ABE649581BF2}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J65" activeCellId="11" sqref="J43 J45 J47 J49 J51 J53 J55 J57 J59 J61 J63 J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9951,19 +10338,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -10044,7 +10431,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -10081,7 +10468,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -10128,7 +10515,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
@@ -10169,7 +10556,7 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -10208,7 +10595,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -10255,7 +10642,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -10296,7 +10683,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -10335,7 +10722,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -10382,7 +10769,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -10423,7 +10810,7 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -10462,7 +10849,7 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -10509,7 +10896,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -10550,7 +10937,7 @@
       <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -10589,7 +10976,7 @@
       <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -10636,7 +11023,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -10677,7 +11064,7 @@
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -10716,7 +11103,7 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -10763,7 +11150,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
@@ -10804,7 +11191,7 @@
       <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -10843,7 +11230,7 @@
       <c r="O22" s="8"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -10890,7 +11277,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -10931,7 +11318,7 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -10970,7 +11357,7 @@
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -11017,7 +11404,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -11058,7 +11445,7 @@
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -11097,7 +11484,7 @@
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -11144,7 +11531,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
@@ -11185,7 +11572,7 @@
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31" t="s">
         <v>14</v>
       </c>
@@ -11224,7 +11611,7 @@
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -11271,7 +11658,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
@@ -11312,7 +11699,7 @@
       <c r="O33" s="8"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -11351,7 +11738,7 @@
       <c r="O34" s="8"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -11398,7 +11785,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -11438,7 +11825,7 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
@@ -11476,7 +11863,7 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
@@ -11558,7 +11945,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B43" t="s">
@@ -11602,7 +11989,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="14"/>
       <c r="B44" t="s">
         <v>29</v>
       </c>
@@ -11644,7 +12031,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B45" t="s">
@@ -11688,7 +12075,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="14"/>
       <c r="B46" t="s">
         <v>29</v>
       </c>
@@ -11730,7 +12117,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B47" t="s">
@@ -11774,7 +12161,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="14"/>
       <c r="B48" t="s">
         <v>29</v>
       </c>
@@ -11816,7 +12203,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
@@ -11860,7 +12247,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="14"/>
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -11902,7 +12289,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B51" t="s">
@@ -11946,7 +12333,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14"/>
       <c r="B52" t="s">
         <v>29</v>
       </c>
@@ -11988,7 +12375,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B53" t="s">
@@ -12032,7 +12419,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="14"/>
       <c r="B54" t="s">
         <v>29</v>
       </c>
@@ -12074,7 +12461,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B55" t="s">
@@ -12118,7 +12505,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="14"/>
       <c r="B56" t="s">
         <v>29</v>
       </c>
@@ -12160,7 +12547,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B57" t="s">
@@ -12204,7 +12591,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="14"/>
       <c r="B58" t="s">
         <v>29</v>
       </c>
@@ -12246,7 +12633,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B59" t="s">
@@ -12290,7 +12677,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="14"/>
       <c r="B60" t="s">
         <v>29</v>
       </c>
@@ -12332,7 +12719,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B61" t="s">
@@ -12376,7 +12763,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="14"/>
       <c r="B62" t="s">
         <v>29</v>
       </c>
@@ -12418,7 +12805,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B63" t="s">
@@ -12462,7 +12849,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
+      <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>29</v>
       </c>
@@ -12504,7 +12891,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B65" t="s">
@@ -12548,7 +12935,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="14"/>
       <c r="B66" t="s">
         <v>29</v>
       </c>
@@ -12591,6 +12978,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -12603,20 +13004,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12628,7 +13015,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="J69" activeCellId="11" sqref="J47 J49 J51 J53 J55 J57 J59 J61 J63 J65 J67 J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12641,19 +13028,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -12722,7 +13109,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -12759,7 +13146,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -12794,7 +13181,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -12829,7 +13216,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -12864,7 +13251,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -12901,7 +13288,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -12936,7 +13323,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -12971,7 +13358,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -13008,7 +13395,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -13043,7 +13430,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -13078,7 +13465,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -13115,7 +13502,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -13150,7 +13537,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -13185,7 +13572,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -13222,7 +13609,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -13257,7 +13644,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -13292,7 +13679,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -13329,7 +13716,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -13364,7 +13751,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
         <v>15</v>
       </c>
@@ -13399,7 +13786,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -13436,7 +13823,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -13471,7 +13858,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -13506,7 +13893,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
@@ -13543,7 +13930,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" t="s">
         <v>14</v>
       </c>
@@ -13578,7 +13965,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" t="s">
         <v>15</v>
       </c>
@@ -13613,7 +14000,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B29" t="s">
@@ -13650,7 +14037,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="B30" t="s">
         <v>14</v>
       </c>
@@ -13685,7 +14072,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31" t="s">
         <v>15</v>
       </c>
@@ -13720,7 +14107,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
@@ -13757,7 +14144,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -13792,7 +14179,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -13827,7 +14214,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
@@ -13864,7 +14251,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -13900,7 +14287,7 @@
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37" t="s">
         <v>15</v>
       </c>
@@ -13935,7 +14322,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -13972,7 +14359,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
@@ -14007,7 +14394,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
@@ -14077,7 +14464,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
@@ -14121,7 +14508,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="14"/>
       <c r="B48" t="s">
         <v>29</v>
       </c>
@@ -14163,7 +14550,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B49" t="s">
@@ -14207,7 +14594,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="14"/>
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -14249,7 +14636,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B51" t="s">
@@ -14293,7 +14680,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14"/>
       <c r="B52" t="s">
         <v>29</v>
       </c>
@@ -14335,7 +14722,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B53" t="s">
@@ -14379,7 +14766,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="14"/>
       <c r="B54" t="s">
         <v>29</v>
       </c>
@@ -14421,7 +14808,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B55" t="s">
@@ -14465,7 +14852,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="14"/>
       <c r="B56" t="s">
         <v>29</v>
       </c>
@@ -14507,7 +14894,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
@@ -14551,7 +14938,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="14"/>
       <c r="B58" t="s">
         <v>29</v>
       </c>
@@ -14593,7 +14980,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B59" t="s">
@@ -14637,7 +15024,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="14"/>
       <c r="B60" t="s">
         <v>29</v>
       </c>
@@ -14679,7 +15066,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B61" t="s">
@@ -14723,7 +15110,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="14"/>
       <c r="B62" t="s">
         <v>29</v>
       </c>
@@ -14765,7 +15152,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B63" t="s">
@@ -14809,7 +15196,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
+      <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>29</v>
       </c>
@@ -14851,7 +15238,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B65" t="s">
@@ -14895,7 +15282,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="14"/>
       <c r="B66" t="s">
         <v>29</v>
       </c>
@@ -14937,7 +15324,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B67" t="s">
@@ -14981,7 +15368,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="14"/>
       <c r="B68" t="s">
         <v>29</v>
       </c>
@@ -15023,7 +15410,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B69" t="s">
@@ -15067,7 +15454,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
+      <c r="A70" s="14"/>
       <c r="B70" t="s">
         <v>29</v>
       </c>
@@ -15110,16 +15497,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A59:A60"/>
@@ -15136,6 +15513,16 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15158,19 +15545,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -15273,7 +15660,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -15310,7 +15697,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -15345,7 +15732,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -15380,7 +15767,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -15417,7 +15804,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -15454,7 +15841,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -15489,7 +15876,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -15524,7 +15911,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -15559,7 +15946,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -15596,7 +15983,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -15631,7 +16018,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -15666,7 +16053,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -15745,7 +16132,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
@@ -15789,7 +16176,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -15831,7 +16218,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -15873,7 +16260,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
@@ -15917,7 +16304,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -15959,7 +16346,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" t="s">
         <v>36</v>
       </c>
@@ -16001,7 +16388,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B27" t="s">
@@ -16045,7 +16432,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -16087,7 +16474,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="15"/>
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -17246,10 +17633,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD0D849-E756-EE49-BE80-3FBE90269E6A}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C2" activeCellId="1" sqref="A2:A23 C2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17382,8 +17769,13 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="8">
+        <v>0.36208887405563145</v>
+      </c>
+      <c r="E8" s="8">
+        <f>1-(1/(1+D8^2))</f>
+        <v>0.11591139999999989</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -17395,13 +17787,8 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
-        <v>0.36208887405563145</v>
-      </c>
-      <c r="E9" s="8">
-        <f>1-(1/(1+D9^2))</f>
-        <v>0.11591139999999989</v>
-      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -17615,6 +18002,18 @@
         <f>1-(1/(1+D23^2))</f>
         <v>3.6638699999999913E-2</v>
       </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
@@ -17629,7 +18028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B96A13-4531-9841-A4AB-E106377859A5}">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
@@ -17641,16 +18040,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -20907,16 +21306,16 @@
         <v>379</v>
       </c>
       <c r="B131" s="3"/>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14" t="s">
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
@@ -23813,11 +24212,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -24892,11 +25291,11 @@
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -26047,4 +26446,1292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A70238-21E8-874E-B3FD-479D6D78D5CA}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.6709999999999999E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.19501832857056711</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>49.882828555305998</v>
+      </c>
+      <c r="G2" s="2">
+        <f>48.9+0.31*(B2)-192.4*(C2)</f>
+        <v>45.684995999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <f>54.8+0.42*(B2)-44.6*(D2)</f>
+        <v>46.102182545752704</v>
+      </c>
+      <c r="I2" s="2">
+        <f>49.9+0.48*(B2)-10.5*(E2)</f>
+        <v>49.9</v>
+      </c>
+      <c r="J2" s="2">
+        <f>G2-F2</f>
+        <v>-4.1978325553060003</v>
+      </c>
+      <c r="K2" s="2">
+        <f>H2-F2</f>
+        <v>-3.7806460095532941</v>
+      </c>
+      <c r="L2" s="2">
+        <f>I2-F2</f>
+        <v>1.7171444694000115E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-28.408845967905535</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.6489999999999997E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.32564935551810564</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>26.387868871703159</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G13" si="0">48.9+0.31*(B3)-192.4*(C3)</f>
+        <v>31.14858174994928</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="1">54.8+0.42*(B3)-44.6*(D3)</f>
+        <v>28.344323437372161</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I13" si="2">49.9+0.48*(B3)-10.5*(E3)</f>
+        <v>25.76375393540534</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J13" si="3">G3-F3</f>
+        <v>4.760712878246121</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K9" si="4">H3-F3</f>
+        <v>1.9564545656690022</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L13" si="5">I3-F3</f>
+        <v>-0.62411493629781845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-26.79366769581306</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.8989999999999998E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.20770588406516152</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>36.065302746912415</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>35.016287014297944</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>34.28297713845231</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>37.039039506009729</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0490157326144711</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.7823256084601056</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97373675909731361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-41.560465978090306</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.12508</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.5132255005556563</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9.8587625003461969</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>11.950863546792004</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>14.454746964419794</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>8.950976330516653</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0921010464458067</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="4"/>
+        <v>4.595984464073597</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.90778616982954397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-52.85764332866686</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8.1490000000000007E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.36208887405563145</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16.351540940942272</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>16.835454568113271</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>16.450626019078751</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>14.028331202239908</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48391362717099895</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9085078136479154E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.3232097387023636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-34.746713892843559</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6.9139999999999993E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.33219327254585179</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>22.771229732347031</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>24.825982693218496</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>25.390560209460716</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>22.721577331435093</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0547529608714648</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6193304771136852</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>-4.9652400911938344E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-52.438901330794515</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.21763001028561987</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>24.33433917764096</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>23.985940587453698</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>23.069362982327657</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>24.729327361218633</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.34839859018726216</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.2649761953133023</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.39498818357767362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-28.249501248366506</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.16741</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.90031416279085852</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.0127303385969348</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9329706130063826</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7811978152137726</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8402394007840783</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9202402744094478</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.2315325233831622</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.17249093781285652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-55.26031905167337</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.16305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.0399883604843523</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39848109398125331</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.375046855196782</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.641507266503099</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.33505849471242977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-42.094467336334056</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.16693</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.62618848192949617</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.6806778050546605</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7333831257364452</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11:H13" si="6">54.8+0.42*(B11)-44.6*(D11)</f>
+        <v>9.1923174246841697</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>8.694655678559652</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9472946793182153</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11:K13" si="7">H11-F11</f>
+        <v>3.5116396196295092</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0139778735049916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-78.454480493952445</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.13203999999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.5838095570732994</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.5997428665388471</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.82538495312525839</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="6"/>
+        <v>-4.188788052929187</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7418493629028262</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.4251278196641053</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="7"/>
+        <v>-5.7885309194680339</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1421064963639791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-82.070113159645445</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.3930000000000001E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.2164455512660981</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9.6277160503650787</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>11.158132920509912</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="6"/>
+        <v>10.677080886480933</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>10.506345683370185</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5304168701448333</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0493648361158545</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87862963300510621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J14" s="13">
+        <f>SQRT(SUMSQ(J2:J13)/COUNT(J2:J13))</f>
+        <v>2.4761999859699868</v>
+      </c>
+      <c r="K14" s="13">
+        <f>SQRT(SUMSQ(K2:K13)/COUNT(K2:K13))</f>
+        <v>3.0572007137753636</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14" si="8">SQRT(SUMSQ(L2:L13)/COUNT(L2:L13))</f>
+        <v>1.2157337312382448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>503</v>
+      </c>
+      <c r="J15" s="2" cm="1">
+        <f t="array" ref="J15">AVERAGE((ABS(J2:J13)))</f>
+        <v>2.1209428584068184</v>
+      </c>
+      <c r="K15" s="2" cm="1">
+        <f t="array" ref="K15">(SUM((ABS(K2:K9)))+SUM((ABS(K11:K13))))/COUNT(K2:K13)</f>
+        <v>2.6072609360832746</v>
+      </c>
+      <c r="L15" s="2" cm="1">
+        <f t="array" ref="L15">AVERAGE((ABS(L2:L13)))</f>
+        <v>0.81941025570916792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>504</v>
+      </c>
+      <c r="J16" s="2">
+        <f>AVERAGE(J2:J13)</f>
+        <v>0.18608008447462657</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16:L16" si="9">AVERAGE(K2:K13)</f>
+        <v>-9.237747413088826E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="9"/>
+        <v>0.13986789178341444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>505</v>
+      </c>
+      <c r="J17" s="2">
+        <f>MEDIAN(J2:J13)</f>
+        <v>6.7757518491868396E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" ref="K17:L17" si="10">MEDIAN(K2:K13)</f>
+        <v>9.9085078136479154E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="10"/>
+        <v>7.9638970528989605E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="2">
+        <v>22.257599313696105</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.6709999999999999E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.19501832857056711</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>66.662291172099131</v>
+      </c>
+      <c r="G21" s="2">
+        <f>54.2+0.42*(B21)-204.4*(C21)</f>
+        <v>60.132667711752369</v>
+      </c>
+      <c r="H21" s="2">
+        <f>56.5+0.52*(B21)-45.3*(D21)</f>
+        <v>59.239621358875283</v>
+      </c>
+      <c r="I21" s="2">
+        <f>49.6+0.6*(B21)-10.4*(E21)</f>
+        <v>62.954559588217663</v>
+      </c>
+      <c r="J21" s="2">
+        <f>G21-F21</f>
+        <v>-6.5296234603467624</v>
+      </c>
+      <c r="K21" s="2">
+        <f>H21-F21</f>
+        <v>-7.4226698132238482</v>
+      </c>
+      <c r="L21" s="2">
+        <f>I21-F21</f>
+        <v>-3.7077315838814684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.15350727191497357</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4.6489999999999997E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.32564935551810564</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>40.573390836542657</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:G32" si="11">54.2+0.42*(B22)-204.4*(C22)</f>
+        <v>44.761917054204297</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22:H28" si="12">56.5+0.52*(B22)-45.3*(D22)</f>
+        <v>41.827907976425607</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22:I32" si="13">49.6+0.6*(B22)-10.4*(E22)</f>
+        <v>39.292104363148987</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22:J32" si="14">G22-F22</f>
+        <v>4.1885262176616394</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" ref="K22:K28" si="15">H22-F22</f>
+        <v>1.2545171398829496</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22:L32" si="16">I22-F22</f>
+        <v>-1.2812864733936706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.1610673417832351</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2.8989999999999998E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.20770588406516152</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>49.46336783994829</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="11"/>
+        <v>49.602092283548963</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="12"/>
+        <v>48.734678469575464</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="13"/>
+        <v>51.49664040506994</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="14"/>
+        <v>0.13872444360067249</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.72868937037282677</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="16"/>
+        <v>2.0332725651216492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-12.084093854936789</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.12508</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.5132255005556563</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21.354338640377428</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="11"/>
+        <v>23.558328580926553</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="12"/>
+        <v>26.967156020261637</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="13"/>
+        <v>21.549543687037929</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="14"/>
+        <v>2.2039899405491248</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6128173798842091</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="16"/>
+        <v>0.19520504666050087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>483</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-18.173100401454441</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8.1490000000000007E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.36208887405563145</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>28.582408274330973</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="11"/>
+        <v>29.910741831389139</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="12"/>
+        <v>30.64736179652359</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
+        <v>28.296139759127335</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3283335570581656</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="15"/>
+        <v>2.0649535221926172</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="16"/>
+        <v>-0.28626851520363772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-3.4862645832110526</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6.9139999999999993E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.33219327254585179</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>38.654072747311972</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="11"/>
+        <v>38.603552875051363</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="12"/>
+        <v>39.63878717040317</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="13"/>
+        <v>37.10824125007337</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="14"/>
+        <v>-5.0519872260608167E-2</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="15"/>
+        <v>0.98471442309119794</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="16"/>
+        <v>-1.545831497238602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-14.348265970283769</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.21763001028561987</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>34.579868008495538</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="11"/>
+        <v>38.975728292480817</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="12"/>
+        <v>39.180262229513858</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="13"/>
+        <v>40.991040417829737</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="14"/>
+        <v>4.3958602839852787</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="15"/>
+        <v>4.6003942210183197</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="16"/>
+        <v>6.4111724093341991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>488</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-10.666445908617236</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.16741</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.90031416279085852</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>13.1706686451717</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="11"/>
+        <v>15.501488718380763</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="12"/>
+        <v>10.16921655309315</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="13"/>
+        <v>12.000132454829654</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="14"/>
+        <v>2.3308200732090629</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="15"/>
+        <v>-3.0014520920785497</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="16"/>
+        <v>-1.1705361903420464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-34.057710806771901</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.16305</v>
+      </c>
+      <c r="D29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>7.4769578596801738</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5683414611558035</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="13"/>
+        <v>8.3653735159368594</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.90861639852437026</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="16"/>
+        <v>0.88841565625668562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>484</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-12.194328942012058</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.16693</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.62618848192949617</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>18.235888034564571</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="11"/>
+        <v>14.957889844354938</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ref="H30:H32" si="17">56.5+0.52*(B30)-45.3*(D30)</f>
+        <v>21.792610718747554</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="13"/>
+        <v>21.483402634792764</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="14"/>
+        <v>-3.2779981902096331</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ref="K30:K32" si="18">H30-F30</f>
+        <v>3.5567226841829829</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="16"/>
+        <v>3.2475146002281932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-54.320662131637128</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.13203999999999999</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.5838095570732994</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6.5870615956621306</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="11"/>
+        <v>4.3963459047124118</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8066827561282288</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="13"/>
+        <v>6.6076027210177255</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="14"/>
+        <v>-2.1907156909497187</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="18"/>
+        <v>-4.7803788395339017</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="16"/>
+        <v>2.0541125355594936E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>485</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-52.642261766137764</v>
+      </c>
+      <c r="C32" s="8">
+        <v>6.3930000000000001E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.2164455512660981</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>21.186049020388474</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="11"/>
+        <v>19.022958058222137</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="17"/>
+        <v>19.321040409254117</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="13"/>
+        <v>18.014642940317344</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="14"/>
+        <v>-2.1630909621663363</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="18"/>
+        <v>-1.8650086111343569</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.1714060800711295</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I33" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J33" s="13">
+        <f>SQRT(SUMSQ(J21:J32)/COUNT(J21:J32))</f>
+        <v>3.0636162772313331</v>
+      </c>
+      <c r="K33" s="13">
+        <f>SQRT(SUMSQ(K21:K32)/COUNT(K21:K32))</f>
+        <v>3.8505151953255297</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" ref="L33" si="19">SQRT(SUMSQ(L21:L32)/COUNT(L21:L32))</f>
+        <v>2.6755057792034469</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>503</v>
+      </c>
+      <c r="J34" s="2" cm="1">
+        <f t="array" ref="J34">AVERAGE((ABS(J21:J32)))</f>
+        <v>2.4755682575434479</v>
+      </c>
+      <c r="K34" s="2" cm="1">
+        <f t="array" ref="K34">(SUM((ABS(K21:K28)))+SUM((ABS(K30:K32))))/COUNT(K21:K32)</f>
+        <v>3.2611198269632511</v>
+      </c>
+      <c r="L34" s="2" cm="1">
+        <f t="array" ref="L34">AVERAGE((ABS(L21:L32)))</f>
+        <v>1.9965984785906148</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>504</v>
+      </c>
+      <c r="J35" s="2">
+        <f>AVERAGE(J21:J32)</f>
+        <v>-4.4525838199457102E-2</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" ref="K35:L35" si="20">AVERAGE(K21:K32)</f>
+        <v>2.5083694900799373E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="20"/>
+        <v>0.13608842190218903</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>505</v>
+      </c>
+      <c r="J36" s="2">
+        <f>MEDIAN(J21:J32)</f>
+        <v>4.410228567003216E-2</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" ref="K36:L36" si="21">MEDIAN(K21:K32)</f>
+        <v>0.98471442309119794</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.13286369492402139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>